--- a/Source/Completed/Tantares.xlsx
+++ b/Source/Completed/Tantares.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\3D\KSP\kiwiTechTree\Source\Completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4B8CF6-B19E-4841-9757-8912D0F03391}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B584D0-6508-4407-BF19-FFF93E6A6DA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{CFEC3D39-50CD-4BC5-8A2D-E61E52BBE13D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{CFEC3D39-50CD-4BC5-8A2D-E61E52BBE13D}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6276" uniqueCount="1477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6277" uniqueCount="1478">
   <si>
     <t>TopFolder</t>
   </si>
@@ -5843,6 +5843,9 @@
   </si>
   <si>
     <t>gnistUpgrade</t>
+  </si>
+  <si>
+    <t>Fixed entryCost bug in engine upgrades; added support for global engine upgrade toggle</t>
   </si>
 </sst>
 </file>
@@ -6331,11 +6334,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F5C443-44ED-45D2-824E-4C1903D8B81D}">
   <dimension ref="A1:AS289"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomRight" activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6684,7 +6687,7 @@
         <v>330</v>
       </c>
       <c r="AC3" s="12" t="str">
-        <f t="shared" ref="AC3:AC66" si="2">IF(P3="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A3,"]",CHAR(10),"{",CHAR(10),"    name = ",X3,CHAR(10),"    partIcon = ",C3,CHAR(10),"    techRequired = ",AS3,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X3,"]:NEEDS[",A3,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C3,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AP3,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C3,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C3,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C3,"]:NEEDS[",A3,"]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",X3,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P3="System",P3="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A3,"]",CHAR(10),"{",CHAR(10),"    name = ",X3,"Upgrade",CHAR(10),"    partIcon = ",C3,CHAR(10),"    techRequired = ",AS3,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = INSERT HERE SYSTEM",CHAR(10),"    basicInfo = Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X3,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",X3,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
+        <f t="shared" ref="AC3:AC66" si="2">IF(P3="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A3,"]",CHAR(10),"{",CHAR(10),"    name = ",X3,CHAR(10),"    partIcon = ",C3,CHAR(10),"    entryCost = 1",CHAR(10),"    techRequired = ",AS3,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X3,"]:NEEDS[",A3,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C3,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AP3,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C3,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C3,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C3,"]:NEEDS[",A3,"]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",X3,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P3="System",P3="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A3,"]",CHAR(10),"{",CHAR(10),"    name = ",X3,"Upgrade",CHAR(10),"    partIcon = ",C3,CHAR(10),"    techRequired = ",AS3,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = INSERT HERE SYSTEM",CHAR(10),"    basicInfo = Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X3,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",X3,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
         <v/>
       </c>
       <c r="AD3" s="14"/>
@@ -6726,7 +6729,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>595</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="60.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>595</v>
       </c>
@@ -7064,7 +7067,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="60.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>595</v>
       </c>
@@ -7174,7 +7177,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>595</v>
       </c>
@@ -7283,7 +7286,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>595</v>
       </c>
@@ -7392,7 +7395,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="60.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>595</v>
       </c>
@@ -7502,7 +7505,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="60.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>595</v>
       </c>
@@ -8073,7 +8076,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>595</v>
       </c>
@@ -8201,7 +8204,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>595</v>
       </c>
@@ -8547,7 +8550,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:45" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>595</v>
       </c>
@@ -8656,7 +8659,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>595</v>
       </c>
@@ -8765,7 +8768,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>595</v>
       </c>
@@ -9201,7 +9204,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>595</v>
       </c>
@@ -9310,7 +9313,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>595</v>
       </c>
@@ -9419,7 +9422,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>595</v>
       </c>
@@ -9528,7 +9531,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>595</v>
       </c>
@@ -9637,7 +9640,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>595</v>
       </c>
@@ -9746,7 +9749,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>595</v>
       </c>
@@ -9855,7 +9858,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>595</v>
       </c>
@@ -10182,7 +10185,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>595</v>
       </c>
@@ -10291,7 +10294,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>595</v>
       </c>
@@ -10727,7 +10730,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:45" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>595</v>
       </c>
@@ -10840,7 +10843,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:45" ht="60.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>595</v>
       </c>
@@ -10949,7 +10952,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:45" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>595</v>
       </c>
@@ -11058,7 +11061,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:45" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>595</v>
       </c>
@@ -11167,7 +11170,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:45" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>595</v>
       </c>
@@ -11276,7 +11279,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:45" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>595</v>
       </c>
@@ -11385,7 +11388,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:45" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>595</v>
       </c>
@@ -11494,7 +11497,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:45" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>595</v>
       </c>
@@ -11616,7 +11619,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>595</v>
       </c>
@@ -11738,7 +11741,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>595</v>
       </c>
@@ -11847,7 +11850,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>595</v>
       </c>
@@ -11956,7 +11959,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:45" ht="145" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>595</v>
       </c>
@@ -12078,7 +12081,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:45" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>595</v>
       </c>
@@ -12187,7 +12190,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:45" ht="145" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>595</v>
       </c>
@@ -12309,7 +12312,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:45" ht="145" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>595</v>
       </c>
@@ -12431,7 +12434,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:45" ht="60.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>595</v>
       </c>
@@ -12540,7 +12543,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:45" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>595</v>
       </c>
@@ -12650,7 +12653,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:45" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>595</v>
       </c>
@@ -12759,7 +12762,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:45" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>595</v>
       </c>
@@ -12868,7 +12871,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:45" ht="48.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>595</v>
       </c>
@@ -12977,7 +12980,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:45" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>595</v>
       </c>
@@ -13087,7 +13090,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:45" ht="60.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>595</v>
       </c>
@@ -13197,7 +13200,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:45" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>595</v>
       </c>
@@ -13307,7 +13310,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:45" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>595</v>
       </c>
@@ -13527,7 +13530,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>595</v>
       </c>
@@ -13637,7 +13640,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>595</v>
       </c>
@@ -13747,7 +13750,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:45" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>595</v>
       </c>
@@ -13815,7 +13818,7 @@
         <v>330</v>
       </c>
       <c r="AC67" s="12" t="str">
-        <f t="shared" ref="AC67:AC68" si="6">IF(P67="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A67,"]",CHAR(10),"{",CHAR(10),"    name = ",X67,CHAR(10),"    partIcon = ",C67,CHAR(10),"    techRequired = ",AS67,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X67,"]:NEEDS[",A67,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C67,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AP67,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C67,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C67,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C67,"]:NEEDS[",A67,"]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",X67,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P67="System",P67="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A67,"]",CHAR(10),"{",CHAR(10),"    name = ",X67,"Upgrade",CHAR(10),"    partIcon = ",C67,CHAR(10),"    techRequired = ",AS67,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = INSERT HERE SYSTEM",CHAR(10),"    basicInfo = Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X67,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",X67,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
+        <f t="shared" ref="AC67:AC70" si="6">IF(P67="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A67,"]",CHAR(10),"{",CHAR(10),"    name = ",X67,CHAR(10),"    partIcon = ",C67,CHAR(10),"    entryCost = 1",CHAR(10),"    techRequired = ",AS67,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X67,"]:NEEDS[",A67,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C67,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AP67,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C67,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C67,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C67,"]:NEEDS[",A67,"]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",X67,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P67="System",P67="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A67,"]",CHAR(10),"{",CHAR(10),"    name = ",X67,"Upgrade",CHAR(10),"    partIcon = ",C67,CHAR(10),"    techRequired = ",AS67,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = INSERT HERE SYSTEM",CHAR(10),"    basicInfo = Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X67,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",X67,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
         <v/>
       </c>
       <c r="AD67" s="14"/>
@@ -13857,7 +13860,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:45" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>595</v>
       </c>
@@ -13967,7 +13970,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:45" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>595</v>
       </c>
@@ -14035,7 +14038,7 @@
         <v>330</v>
       </c>
       <c r="AC69" s="12" t="str">
-        <f t="shared" ref="AC69:AC132" si="8">IF(P69="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A69,"]",CHAR(10),"{",CHAR(10),"    name = ",X69,CHAR(10),"    partIcon = ",C69,CHAR(10),"    techRequired = ",AS69,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X69,"]:NEEDS[",A69,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C69,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AP69,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C69,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C69,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C69,"]:NEEDS[",A69,"]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",X69,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P69="System",P69="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A69,"]",CHAR(10),"{",CHAR(10),"    name = ",X69,"Upgrade",CHAR(10),"    partIcon = ",C69,CHAR(10),"    techRequired = ",AS69,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = INSERT HERE SYSTEM",CHAR(10),"    basicInfo = Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X69,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",X69,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD69" s="14"/>
@@ -14049,7 +14052,7 @@
       <c r="AJ69" s="18"/>
       <c r="AK69" s="18"/>
       <c r="AL69" s="19" t="str">
-        <f t="shared" ref="AL69:AL132" si="9">IF(AE69="Yes",_xlfn.CONCAT("    @MODULE[ModuleEngines*]",CHAR(10),"    {",IF(AF69&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        @maxThrust = ",AF69),""),IF(AG69&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        !atmosphereCurve {}",CHAR(10),"        atmosphereCurve",CHAR(10),"        {",IF(AG69&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AG69),""),IF(AH69&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AH69),""),IF(AI69&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AI69),""),IF(AJ69&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AJ69),""),IF(AK69&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AK69),""),CHAR(10),"        }"),""),CHAR(10),"    }"),"")</f>
+        <f t="shared" ref="AL69:AL132" si="8">IF(AE69="Yes",_xlfn.CONCAT("    @MODULE[ModuleEngines*]",CHAR(10),"    {",IF(AF69&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        @maxThrust = ",AF69),""),IF(AG69&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        !atmosphereCurve {}",CHAR(10),"        atmosphereCurve",CHAR(10),"        {",IF(AG69&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AG69),""),IF(AH69&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AH69),""),IF(AI69&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AI69),""),IF(AJ69&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AJ69),""),IF(AK69&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AK69),""),CHAR(10),"        }"),""),CHAR(10),"    }"),"")</f>
         <v/>
       </c>
       <c r="AM69" s="14"/>
@@ -14174,11 +14177,12 @@
         <v>330</v>
       </c>
       <c r="AC70" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = sprengningsnalUpgrade
     partIcon = castor_aerospike_engine_s0_1
+    entryCost = 1
     techRequired = experimentalPropulsion
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -14192,7 +14196,7 @@
     @title = #$@PART[castor_aerospike_engine_s0_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[castor_aerospike_engine_s0_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[castor_aerospike_engine_s0_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[castor_aerospike_engine_s0_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[sprengningsnalUpgrade]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -14220,7 +14224,7 @@
         <v>1472</v>
       </c>
       <c r="AL70" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    @MODULE[ModuleEngines*]
     {
         @maxThrust = 90
@@ -14348,11 +14352,12 @@
         <v>330</v>
       </c>
       <c r="AC71" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(P71="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A71,"]",CHAR(10),"{",CHAR(10),"    name = ",X71,CHAR(10),"    partIcon = ",C71,CHAR(10),"    entryCost = 1",CHAR(10),"    techRequired = ",AS71,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X71,"]:NEEDS[",A71,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C71,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AP71,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C71,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C71,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C71,"]:NEEDS[",A71,"]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",X71,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P71="System",P71="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A71,"]",CHAR(10),"{",CHAR(10),"    name = ",X71,"Upgrade",CHAR(10),"    partIcon = ",C71,CHAR(10),"    techRequired = ",AS71,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = INSERT HERE SYSTEM",CHAR(10),"    basicInfo = Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X71,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",X71,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = gnistUpgrade
     partIcon = castor_ion_engine_s0_1
+    entryCost = 1
     techRequired = advGriddedThrusters
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -14366,7 +14371,7 @@
     @title = #$@PART[castor_ion_engine_s0_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[castor_ion_engine_s0_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[castor_ion_engine_s0_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[castor_ion_engine_s0_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[gnistUpgrade]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -14382,7 +14387,7 @@
       <c r="AJ71" s="18"/>
       <c r="AK71" s="18"/>
       <c r="AL71" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM71" s="14"/>
@@ -14425,7 +14430,7 @@
         <v>advGriddedThrusters</v>
       </c>
     </row>
-    <row r="72" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>595</v>
       </c>
@@ -14511,11 +14516,12 @@
         <v>330</v>
       </c>
       <c r="AC72" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AC72:AC135" si="9">IF(P72="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A72,"]",CHAR(10),"{",CHAR(10),"    name = ",X72,CHAR(10),"    partIcon = ",C72,CHAR(10),"    entryCost = 1",CHAR(10),"    techRequired = ",AS72,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X72,"]:NEEDS[",A72,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C72,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AP72,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C72,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C72,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C72,"]:NEEDS[",A72,"]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",X72,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P72="System",P72="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A72,"]",CHAR(10),"{",CHAR(10),"    name = ",X72,"Upgrade",CHAR(10),"    partIcon = ",C72,CHAR(10),"    techRequired = ",AS72,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = INSERT HERE SYSTEM",CHAR(10),"    basicInfo = Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X72,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",X72,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = skogstjerneUpgrade
     partIcon = eridani_engine_s0_1
+    entryCost = 1
     techRequired = heavyRocketry
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -14529,7 +14535,7 @@
     @title = #$@PART[eridani_engine_s0_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[eridani_engine_s0_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[eridani_engine_s0_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[eridani_engine_s0_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[skogstjerneUpgrade]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -14551,7 +14557,7 @@
       <c r="AJ72" s="18"/>
       <c r="AK72" s="18"/>
       <c r="AL72" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v xml:space="preserve">    @MODULE[ModuleEngines*]
     {
         !atmosphereCurve {}
@@ -14597,7 +14603,7 @@
         <v>heavyRocketry</v>
       </c>
     </row>
-    <row r="73" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>595</v>
       </c>
@@ -14665,7 +14671,7 @@
         <v>330</v>
       </c>
       <c r="AC73" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -14694,7 +14700,7 @@
       <c r="AJ73" s="18"/>
       <c r="AK73" s="18"/>
       <c r="AL73" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM73" s="14"/>
@@ -14722,7 +14728,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>595</v>
       </c>
@@ -14795,11 +14801,12 @@
         <v>330</v>
       </c>
       <c r="AC74" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = alnair_les_s0_1
+    entryCost = 1
     techRequired = generalRocketry
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -14813,7 +14820,7 @@
     @title = #$@PART[alnair_les_s0_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[alnair_les_s0_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[alnair_les_s0_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[alnair_les_s0_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -14829,7 +14836,7 @@
       <c r="AJ74" s="18"/>
       <c r="AK74" s="18"/>
       <c r="AL74" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM74" s="14"/>
@@ -14866,7 +14873,7 @@
         <v>generalRocketry</v>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>595</v>
       </c>
@@ -14934,7 +14941,7 @@
         <v>330</v>
       </c>
       <c r="AC75" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -14963,7 +14970,7 @@
       <c r="AJ75" s="18"/>
       <c r="AK75" s="18"/>
       <c r="AL75" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM75" s="14"/>
@@ -14991,7 +14998,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>595</v>
       </c>
@@ -15064,11 +15071,12 @@
         <v>330</v>
       </c>
       <c r="AC76" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = cursa_solar_srf_1_1
+    entryCost = 1
     techRequired = start
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -15082,7 +15090,7 @@
     @title = #$@PART[cursa_solar_srf_1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[cursa_solar_srf_1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[cursa_solar_srf_1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[cursa_solar_srf_1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -15098,7 +15106,7 @@
       <c r="AJ76" s="18"/>
       <c r="AK76" s="18"/>
       <c r="AL76" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM76" s="14"/>
@@ -15135,7 +15143,7 @@
         <v>start</v>
       </c>
     </row>
-    <row r="77" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>595</v>
       </c>
@@ -15203,7 +15211,7 @@
         <v>330</v>
       </c>
       <c r="AC77" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -15232,7 +15240,7 @@
       <c r="AJ77" s="18"/>
       <c r="AK77" s="18"/>
       <c r="AL77" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM77" s="14"/>
@@ -15260,7 +15268,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>595</v>
       </c>
@@ -15333,11 +15341,12 @@
         <v>330</v>
       </c>
       <c r="AC78" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = acamar_solar_srf_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -15351,7 +15360,7 @@
     @title = #$@PART[acamar_solar_srf_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[acamar_solar_srf_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[acamar_solar_srf_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[acamar_solar_srf_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -15367,7 +15376,7 @@
       <c r="AJ78" s="18"/>
       <c r="AK78" s="18"/>
       <c r="AL78" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM78" s="14"/>
@@ -15404,7 +15413,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="79" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>595</v>
       </c>
@@ -15472,7 +15481,7 @@
         <v>330</v>
       </c>
       <c r="AC79" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -15501,7 +15510,7 @@
       <c r="AJ79" s="18"/>
       <c r="AK79" s="18"/>
       <c r="AL79" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM79" s="14"/>
@@ -15529,7 +15538,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>595</v>
       </c>
@@ -15602,11 +15611,12 @@
         <v>330</v>
       </c>
       <c r="AC80" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = eridani_dorsal_solar_srf_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -15620,7 +15630,7 @@
     @title = #$@PART[eridani_dorsal_solar_srf_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[eridani_dorsal_solar_srf_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[eridani_dorsal_solar_srf_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[eridani_dorsal_solar_srf_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -15636,7 +15646,7 @@
       <c r="AJ80" s="18"/>
       <c r="AK80" s="18"/>
       <c r="AL80" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM80" s="14"/>
@@ -15673,7 +15683,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="81" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>595</v>
       </c>
@@ -15741,7 +15751,7 @@
         <v>330</v>
       </c>
       <c r="AC81" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -15770,7 +15780,7 @@
       <c r="AJ81" s="18"/>
       <c r="AK81" s="18"/>
       <c r="AL81" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM81" s="14"/>
@@ -15798,7 +15808,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>595</v>
       </c>
@@ -15871,11 +15881,12 @@
         <v>330</v>
       </c>
       <c r="AC82" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = eridani_solar_srf_1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -15889,7 +15900,7 @@
     @title = #$@PART[eridani_solar_srf_1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[eridani_solar_srf_1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[eridani_solar_srf_1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[eridani_solar_srf_1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -15905,7 +15916,7 @@
       <c r="AJ82" s="18"/>
       <c r="AK82" s="18"/>
       <c r="AL82" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM82" s="14"/>
@@ -15942,7 +15953,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="83" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>595</v>
       </c>
@@ -16010,7 +16021,7 @@
         <v>330</v>
       </c>
       <c r="AC83" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -16039,7 +16050,7 @@
       <c r="AJ83" s="18"/>
       <c r="AK83" s="18"/>
       <c r="AL83" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM83" s="14"/>
@@ -16067,7 +16078,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>595</v>
       </c>
@@ -16140,11 +16151,12 @@
         <v>330</v>
       </c>
       <c r="AC84" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = eridani_solar_srf_2_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -16158,7 +16170,7 @@
     @title = #$@PART[eridani_solar_srf_2_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[eridani_solar_srf_2_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[eridani_solar_srf_2_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[eridani_solar_srf_2_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -16174,7 +16186,7 @@
       <c r="AJ84" s="18"/>
       <c r="AK84" s="18"/>
       <c r="AL84" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM84" s="14"/>
@@ -16211,7 +16223,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="85" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>595</v>
       </c>
@@ -16279,7 +16291,7 @@
         <v>330</v>
       </c>
       <c r="AC85" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -16308,7 +16320,7 @@
       <c r="AJ85" s="18"/>
       <c r="AK85" s="18"/>
       <c r="AL85" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM85" s="14"/>
@@ -16336,7 +16348,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>595</v>
       </c>
@@ -16409,11 +16421,12 @@
         <v>330</v>
       </c>
       <c r="AC86" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = eridani_solar_srf_3_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -16427,7 +16440,7 @@
     @title = #$@PART[eridani_solar_srf_3_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[eridani_solar_srf_3_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[eridani_solar_srf_3_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[eridani_solar_srf_3_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -16443,7 +16456,7 @@
       <c r="AJ86" s="18"/>
       <c r="AK86" s="18"/>
       <c r="AL86" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM86" s="14"/>
@@ -16480,7 +16493,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="87" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>595</v>
       </c>
@@ -16548,7 +16561,7 @@
         <v>330</v>
       </c>
       <c r="AC87" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -16577,7 +16590,7 @@
       <c r="AJ87" s="18"/>
       <c r="AK87" s="18"/>
       <c r="AL87" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM87" s="14"/>
@@ -16605,7 +16618,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>595</v>
       </c>
@@ -16678,11 +16691,12 @@
         <v>330</v>
       </c>
       <c r="AC88" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = octans_basic_solar_srf_1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -16696,7 +16710,7 @@
     @title = #$@PART[octans_basic_solar_srf_1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[octans_basic_solar_srf_1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[octans_basic_solar_srf_1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[octans_basic_solar_srf_1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -16712,7 +16726,7 @@
       <c r="AJ88" s="18"/>
       <c r="AK88" s="18"/>
       <c r="AL88" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM88" s="14"/>
@@ -16749,7 +16763,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="89" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>595</v>
       </c>
@@ -16817,7 +16831,7 @@
         <v>330</v>
       </c>
       <c r="AC89" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -16846,7 +16860,7 @@
       <c r="AJ89" s="18"/>
       <c r="AK89" s="18"/>
       <c r="AL89" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM89" s="14"/>
@@ -16874,7 +16888,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>595</v>
       </c>
@@ -16947,11 +16961,12 @@
         <v>330</v>
       </c>
       <c r="AC90" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = octans_solar_srf_1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -16965,7 +16980,7 @@
     @title = #$@PART[octans_solar_srf_1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[octans_solar_srf_1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[octans_solar_srf_1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[octans_solar_srf_1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -16981,7 +16996,7 @@
       <c r="AJ90" s="18"/>
       <c r="AK90" s="18"/>
       <c r="AL90" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM90" s="14"/>
@@ -17018,7 +17033,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="91" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>595</v>
       </c>
@@ -17086,7 +17101,7 @@
         <v>330</v>
       </c>
       <c r="AC91" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -17115,7 +17130,7 @@
       <c r="AJ91" s="18"/>
       <c r="AK91" s="18"/>
       <c r="AL91" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM91" s="14"/>
@@ -17143,7 +17158,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>595</v>
       </c>
@@ -17216,11 +17231,12 @@
         <v>330</v>
       </c>
       <c r="AC92" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = pavonis_solar_srf_1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -17234,7 +17250,7 @@
     @title = #$@PART[pavonis_solar_srf_1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[pavonis_solar_srf_1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[pavonis_solar_srf_1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[pavonis_solar_srf_1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -17250,7 +17266,7 @@
       <c r="AJ92" s="18"/>
       <c r="AK92" s="18"/>
       <c r="AL92" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM92" s="14"/>
@@ -17287,7 +17303,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="93" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>595</v>
       </c>
@@ -17355,7 +17371,7 @@
         <v>330</v>
       </c>
       <c r="AC93" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -17384,7 +17400,7 @@
       <c r="AJ93" s="18"/>
       <c r="AK93" s="18"/>
       <c r="AL93" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM93" s="14"/>
@@ -17412,7 +17428,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>595</v>
       </c>
@@ -17485,11 +17501,12 @@
         <v>330</v>
       </c>
       <c r="AC94" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquila_active_radiator_srf_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -17503,7 +17520,7 @@
     @title = #$@PART[aquila_active_radiator_srf_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquila_active_radiator_srf_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquila_active_radiator_srf_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquila_active_radiator_srf_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -17519,7 +17536,7 @@
       <c r="AJ94" s="18"/>
       <c r="AK94" s="18"/>
       <c r="AL94" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM94" s="14"/>
@@ -17556,7 +17573,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="95" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>595</v>
       </c>
@@ -17624,7 +17641,7 @@
         <v>330</v>
       </c>
       <c r="AC95" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -17653,7 +17670,7 @@
       <c r="AJ95" s="18"/>
       <c r="AK95" s="18"/>
       <c r="AL95" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM95" s="14"/>
@@ -17681,7 +17698,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>595</v>
       </c>
@@ -17754,11 +17771,12 @@
         <v>330</v>
       </c>
       <c r="AC96" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquila_adapter_s1p5_s0_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -17772,7 +17790,7 @@
     @title = #$@PART[aquila_adapter_s1p5_s0_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquila_adapter_s1p5_s0_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquila_adapter_s1p5_s0_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquila_adapter_s1p5_s0_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -17788,7 +17806,7 @@
       <c r="AJ96" s="18"/>
       <c r="AK96" s="18"/>
       <c r="AL96" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM96" s="14"/>
@@ -17825,7 +17843,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="97" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>595</v>
       </c>
@@ -17893,7 +17911,7 @@
         <v>330</v>
       </c>
       <c r="AC97" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -17922,7 +17940,7 @@
       <c r="AJ97" s="18"/>
       <c r="AK97" s="18"/>
       <c r="AL97" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM97" s="14"/>
@@ -17950,7 +17968,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>595</v>
       </c>
@@ -18023,11 +18041,12 @@
         <v>330</v>
       </c>
       <c r="AC98" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquila_adapter_s1p5_s1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -18041,7 +18060,7 @@
     @title = #$@PART[aquila_adapter_s1p5_s1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquila_adapter_s1p5_s1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquila_adapter_s1p5_s1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquila_adapter_s1p5_s1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -18057,7 +18076,7 @@
       <c r="AJ98" s="18"/>
       <c r="AK98" s="18"/>
       <c r="AL98" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM98" s="14"/>
@@ -18094,7 +18113,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="99" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>595</v>
       </c>
@@ -18162,7 +18181,7 @@
         <v>330</v>
       </c>
       <c r="AC99" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -18191,7 +18210,7 @@
       <c r="AJ99" s="18"/>
       <c r="AK99" s="18"/>
       <c r="AL99" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM99" s="14"/>
@@ -18219,7 +18238,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>595</v>
       </c>
@@ -18292,11 +18311,12 @@
         <v>330</v>
       </c>
       <c r="AC100" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquila_adapter_s2_s1p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -18310,7 +18330,7 @@
     @title = #$@PART[aquila_adapter_s2_s1p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquila_adapter_s2_s1p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquila_adapter_s2_s1p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquila_adapter_s2_s1p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -18326,7 +18346,7 @@
       <c r="AJ100" s="18"/>
       <c r="AK100" s="18"/>
       <c r="AL100" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM100" s="14"/>
@@ -18363,7 +18383,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="101" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>595</v>
       </c>
@@ -18431,7 +18451,7 @@
         <v>330</v>
       </c>
       <c r="AC101" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -18460,7 +18480,7 @@
       <c r="AJ101" s="18"/>
       <c r="AK101" s="18"/>
       <c r="AL101" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM101" s="14"/>
@@ -18488,7 +18508,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>595</v>
       </c>
@@ -18561,11 +18581,12 @@
         <v>330</v>
       </c>
       <c r="AC102" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquila_control_s2_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -18579,7 +18600,7 @@
     @title = #$@PART[aquila_control_s2_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquila_control_s2_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquila_control_s2_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquila_control_s2_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -18595,7 +18616,7 @@
       <c r="AJ102" s="18"/>
       <c r="AK102" s="18"/>
       <c r="AL102" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM102" s="14"/>
@@ -18632,7 +18653,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="103" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>595</v>
       </c>
@@ -18700,7 +18721,7 @@
         <v>330</v>
       </c>
       <c r="AC103" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -18729,7 +18750,7 @@
       <c r="AJ103" s="18"/>
       <c r="AK103" s="18"/>
       <c r="AL103" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM103" s="14"/>
@@ -18757,7 +18778,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>595</v>
       </c>
@@ -18830,11 +18851,12 @@
         <v>330</v>
       </c>
       <c r="AC104" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquila_crew_s1_1_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -18848,7 +18870,7 @@
     @title = #$@PART[aquila_crew_s1_1_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquila_crew_s1_1_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquila_crew_s1_1_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquila_crew_s1_1_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -18864,7 +18886,7 @@
       <c r="AJ104" s="18"/>
       <c r="AK104" s="18"/>
       <c r="AL104" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM104" s="14"/>
@@ -18901,7 +18923,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="105" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>595</v>
       </c>
@@ -18969,7 +18991,7 @@
         <v>330</v>
       </c>
       <c r="AC105" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -18998,7 +19020,7 @@
       <c r="AJ105" s="18"/>
       <c r="AK105" s="18"/>
       <c r="AL105" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM105" s="14"/>
@@ -19026,7 +19048,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>595</v>
       </c>
@@ -19099,11 +19121,12 @@
         <v>330</v>
       </c>
       <c r="AC106" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquila_crew_s1_3_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -19117,7 +19140,7 @@
     @title = #$@PART[aquila_crew_s1_3_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquila_crew_s1_3_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquila_crew_s1_3_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquila_crew_s1_3_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -19133,7 +19156,7 @@
       <c r="AJ106" s="18"/>
       <c r="AK106" s="18"/>
       <c r="AL106" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM106" s="14"/>
@@ -19170,7 +19193,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="107" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>595</v>
       </c>
@@ -19238,7 +19261,7 @@
         <v>330</v>
       </c>
       <c r="AC107" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -19267,7 +19290,7 @@
       <c r="AJ107" s="18"/>
       <c r="AK107" s="18"/>
       <c r="AL107" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM107" s="14"/>
@@ -19295,7 +19318,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>595</v>
       </c>
@@ -19368,11 +19391,12 @@
         <v>330</v>
       </c>
       <c r="AC108" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquila_crew_s1p5_1_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -19386,7 +19410,7 @@
     @title = #$@PART[aquila_crew_s1p5_1_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquila_crew_s1p5_1_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquila_crew_s1p5_1_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquila_crew_s1p5_1_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -19402,7 +19426,7 @@
       <c r="AJ108" s="18"/>
       <c r="AK108" s="18"/>
       <c r="AL108" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM108" s="14"/>
@@ -19439,7 +19463,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="109" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>595</v>
       </c>
@@ -19507,7 +19531,7 @@
         <v>330</v>
       </c>
       <c r="AC109" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -19536,7 +19560,7 @@
       <c r="AJ109" s="18"/>
       <c r="AK109" s="18"/>
       <c r="AL109" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM109" s="14"/>
@@ -19564,7 +19588,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>595</v>
       </c>
@@ -19637,11 +19661,12 @@
         <v>330</v>
       </c>
       <c r="AC110" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquila_crew_s1p5_2_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -19655,7 +19680,7 @@
     @title = #$@PART[aquila_crew_s1p5_2_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquila_crew_s1p5_2_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquila_crew_s1p5_2_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquila_crew_s1p5_2_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -19671,7 +19696,7 @@
       <c r="AJ110" s="18"/>
       <c r="AK110" s="18"/>
       <c r="AL110" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM110" s="14"/>
@@ -19708,7 +19733,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="111" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>595</v>
       </c>
@@ -19776,7 +19801,7 @@
         <v>330</v>
       </c>
       <c r="AC111" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -19805,7 +19830,7 @@
       <c r="AJ111" s="18"/>
       <c r="AK111" s="18"/>
       <c r="AL111" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM111" s="14"/>
@@ -19833,7 +19858,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>595</v>
       </c>
@@ -19906,11 +19931,12 @@
         <v>330</v>
       </c>
       <c r="AC112" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquila_crew_s1p5_3_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -19924,7 +19950,7 @@
     @title = #$@PART[aquila_crew_s1p5_3_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquila_crew_s1p5_3_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquila_crew_s1p5_3_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquila_crew_s1p5_3_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -19940,7 +19966,7 @@
       <c r="AJ112" s="18"/>
       <c r="AK112" s="18"/>
       <c r="AL112" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM112" s="14"/>
@@ -19977,7 +20003,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="113" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>595</v>
       </c>
@@ -20045,7 +20071,7 @@
         <v>330</v>
       </c>
       <c r="AC113" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -20074,7 +20100,7 @@
       <c r="AJ113" s="18"/>
       <c r="AK113" s="18"/>
       <c r="AL113" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM113" s="14"/>
@@ -20102,7 +20128,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>595</v>
       </c>
@@ -20175,11 +20201,12 @@
         <v>330</v>
       </c>
       <c r="AC114" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquila_crew_s2_s1p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -20193,7 +20220,7 @@
     @title = #$@PART[aquila_crew_s2_s1p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquila_crew_s2_s1p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquila_crew_s2_s1p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquila_crew_s2_s1p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -20209,7 +20236,7 @@
       <c r="AJ114" s="18"/>
       <c r="AK114" s="18"/>
       <c r="AL114" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM114" s="14"/>
@@ -20246,7 +20273,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="115" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>595</v>
       </c>
@@ -20314,7 +20341,7 @@
         <v>330</v>
       </c>
       <c r="AC115" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -20343,7 +20370,7 @@
       <c r="AJ115" s="18"/>
       <c r="AK115" s="18"/>
       <c r="AL115" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM115" s="14"/>
@@ -20371,7 +20398,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>595</v>
       </c>
@@ -20444,11 +20471,12 @@
         <v>330</v>
       </c>
       <c r="AC116" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquila_fuel_tank_single_srf_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -20462,7 +20490,7 @@
     @title = #$@PART[aquila_fuel_tank_single_srf_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquila_fuel_tank_single_srf_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquila_fuel_tank_single_srf_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquila_fuel_tank_single_srf_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -20478,7 +20506,7 @@
       <c r="AJ116" s="18"/>
       <c r="AK116" s="18"/>
       <c r="AL116" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM116" s="14"/>
@@ -20515,7 +20543,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="117" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>595</v>
       </c>
@@ -20583,7 +20611,7 @@
         <v>330</v>
       </c>
       <c r="AC117" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -20612,7 +20640,7 @@
       <c r="AJ117" s="18"/>
       <c r="AK117" s="18"/>
       <c r="AL117" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM117" s="14"/>
@@ -20640,7 +20668,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>595</v>
       </c>
@@ -20713,11 +20741,12 @@
         <v>330</v>
       </c>
       <c r="AC118" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquila_node_cap_s0p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -20731,7 +20760,7 @@
     @title = #$@PART[aquila_node_cap_s0p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquila_node_cap_s0p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquila_node_cap_s0p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquila_node_cap_s0p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -20747,7 +20776,7 @@
       <c r="AJ118" s="18"/>
       <c r="AK118" s="18"/>
       <c r="AL118" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM118" s="14"/>
@@ -20784,7 +20813,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="119" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>595</v>
       </c>
@@ -20852,7 +20881,7 @@
         <v>330</v>
       </c>
       <c r="AC119" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -20881,7 +20910,7 @@
       <c r="AJ119" s="18"/>
       <c r="AK119" s="18"/>
       <c r="AL119" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM119" s="14"/>
@@ -20909,7 +20938,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>595</v>
       </c>
@@ -20982,11 +21011,12 @@
         <v>330</v>
       </c>
       <c r="AC120" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquila_radiator_fuel_tank_double_srf_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -21000,7 +21030,7 @@
     @title = #$@PART[aquila_radiator_fuel_tank_double_srf_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquila_radiator_fuel_tank_double_srf_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquila_radiator_fuel_tank_double_srf_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquila_radiator_fuel_tank_double_srf_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -21016,7 +21046,7 @@
       <c r="AJ120" s="18"/>
       <c r="AK120" s="18"/>
       <c r="AL120" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM120" s="14"/>
@@ -21053,7 +21083,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="121" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>595</v>
       </c>
@@ -21121,7 +21151,7 @@
         <v>330</v>
       </c>
       <c r="AC121" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -21150,7 +21180,7 @@
       <c r="AJ121" s="18"/>
       <c r="AK121" s="18"/>
       <c r="AL121" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM121" s="14"/>
@@ -21178,7 +21208,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>595</v>
       </c>
@@ -21251,11 +21281,12 @@
         <v>330</v>
       </c>
       <c r="AC122" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = sargas_control_s1p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -21269,7 +21300,7 @@
     @title = #$@PART[sargas_control_s1p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[sargas_control_s1p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[sargas_control_s1p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[sargas_control_s1p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -21285,7 +21316,7 @@
       <c r="AJ122" s="18"/>
       <c r="AK122" s="18"/>
       <c r="AL122" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM122" s="14"/>
@@ -21322,7 +21353,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>595</v>
       </c>
@@ -21390,7 +21421,7 @@
         <v>330</v>
       </c>
       <c r="AC123" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -21419,7 +21450,7 @@
       <c r="AJ123" s="18"/>
       <c r="AK123" s="18"/>
       <c r="AL123" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM123" s="14"/>
@@ -21447,7 +21478,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>595</v>
       </c>
@@ -21520,11 +21551,12 @@
         <v>330</v>
       </c>
       <c r="AC124" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = sargas_docking_mechanism_s1p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -21538,7 +21570,7 @@
     @title = #$@PART[sargas_docking_mechanism_s1p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[sargas_docking_mechanism_s1p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[sargas_docking_mechanism_s1p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[sargas_docking_mechanism_s1p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -21554,7 +21586,7 @@
       <c r="AJ124" s="18"/>
       <c r="AK124" s="18"/>
       <c r="AL124" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM124" s="14"/>
@@ -21591,7 +21623,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="125" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>595</v>
       </c>
@@ -21659,7 +21691,7 @@
         <v>330</v>
       </c>
       <c r="AC125" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -21688,7 +21720,7 @@
       <c r="AJ125" s="18"/>
       <c r="AK125" s="18"/>
       <c r="AL125" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM125" s="14"/>
@@ -21716,7 +21748,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>595</v>
       </c>
@@ -21789,11 +21821,12 @@
         <v>330</v>
       </c>
       <c r="AC126" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Ara_Antenna_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -21807,7 +21840,7 @@
     @title = #$@PART[Ara_Antenna_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Ara_Antenna_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Ara_Antenna_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Ara_Antenna_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -21823,7 +21856,7 @@
       <c r="AJ126" s="18"/>
       <c r="AK126" s="18"/>
       <c r="AL126" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM126" s="14"/>
@@ -21860,7 +21893,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="127" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>595</v>
       </c>
@@ -21928,7 +21961,7 @@
         <v>330</v>
       </c>
       <c r="AC127" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -21957,7 +21990,7 @@
       <c r="AJ127" s="18"/>
       <c r="AK127" s="18"/>
       <c r="AL127" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM127" s="14"/>
@@ -21985,7 +22018,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>595</v>
       </c>
@@ -22058,11 +22091,12 @@
         <v>330</v>
       </c>
       <c r="AC128" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Ara_Control_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -22076,7 +22110,7 @@
     @title = #$@PART[Ara_Control_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Ara_Control_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Ara_Control_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Ara_Control_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -22092,7 +22126,7 @@
       <c r="AJ128" s="18"/>
       <c r="AK128" s="18"/>
       <c r="AL128" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM128" s="14"/>
@@ -22129,7 +22163,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="129" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>595</v>
       </c>
@@ -22197,7 +22231,7 @@
         <v>330</v>
       </c>
       <c r="AC129" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -22226,7 +22260,7 @@
       <c r="AJ129" s="18"/>
       <c r="AK129" s="18"/>
       <c r="AL129" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM129" s="14"/>
@@ -22254,7 +22288,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>595</v>
       </c>
@@ -22327,11 +22361,12 @@
         <v>330</v>
       </c>
       <c r="AC130" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Ara_GooExperiment_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -22345,7 +22380,7 @@
     @title = #$@PART[Ara_GooExperiment_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Ara_GooExperiment_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Ara_GooExperiment_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Ara_GooExperiment_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -22361,7 +22396,7 @@
       <c r="AJ130" s="18"/>
       <c r="AK130" s="18"/>
       <c r="AL130" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM130" s="14"/>
@@ -22398,7 +22433,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="131" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>595</v>
       </c>
@@ -22466,7 +22501,7 @@
         <v>330</v>
       </c>
       <c r="AC131" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -22495,7 +22530,7 @@
       <c r="AJ131" s="18"/>
       <c r="AK131" s="18"/>
       <c r="AL131" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM131" s="14"/>
@@ -22523,7 +22558,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>595</v>
       </c>
@@ -22596,11 +22631,12 @@
         <v>330</v>
       </c>
       <c r="AC132" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Ara_Mount_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -22614,7 +22650,7 @@
     @title = #$@PART[Ara_Mount_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Ara_Mount_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Ara_Mount_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Ara_Mount_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -22630,7 +22666,7 @@
       <c r="AJ132" s="18"/>
       <c r="AK132" s="18"/>
       <c r="AL132" s="19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="AM132" s="14"/>
@@ -22667,7 +22703,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="133" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>595</v>
       </c>
@@ -22735,7 +22771,7 @@
         <v>330</v>
       </c>
       <c r="AC133" s="12" t="str">
-        <f t="shared" ref="AC133:AC196" si="11">IF(P133="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A133,"]",CHAR(10),"{",CHAR(10),"    name = ",X133,CHAR(10),"    partIcon = ",C133,CHAR(10),"    techRequired = ",AS133,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X133,"]:NEEDS[",A133,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C133,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AP133,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C133,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C133,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C133,"]:NEEDS[",A133,"]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",X133,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P133="System",P133="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A133,"]",CHAR(10),"{",CHAR(10),"    name = ",X133,"Upgrade",CHAR(10),"    partIcon = ",C133,CHAR(10),"    techRequired = ",AS133,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = INSERT HERE SYSTEM",CHAR(10),"    basicInfo = Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X133,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",X133,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -22764,7 +22800,7 @@
       <c r="AJ133" s="18"/>
       <c r="AK133" s="18"/>
       <c r="AL133" s="19" t="str">
-        <f t="shared" ref="AL133:AL196" si="12">IF(AE133="Yes",_xlfn.CONCAT("    @MODULE[ModuleEngines*]",CHAR(10),"    {",IF(AF133&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        @maxThrust = ",AF133),""),IF(AG133&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        !atmosphereCurve {}",CHAR(10),"        atmosphereCurve",CHAR(10),"        {",IF(AG133&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AG133),""),IF(AH133&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AH133),""),IF(AI133&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AI133),""),IF(AJ133&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AJ133),""),IF(AK133&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AK133),""),CHAR(10),"        }"),""),CHAR(10),"    }"),"")</f>
+        <f t="shared" ref="AL133:AL196" si="11">IF(AE133="Yes",_xlfn.CONCAT("    @MODULE[ModuleEngines*]",CHAR(10),"    {",IF(AF133&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        @maxThrust = ",AF133),""),IF(AG133&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        !atmosphereCurve {}",CHAR(10),"        atmosphereCurve",CHAR(10),"        {",IF(AG133&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AG133),""),IF(AH133&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AH133),""),IF(AI133&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AI133),""),IF(AJ133&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AJ133),""),IF(AK133&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AK133),""),CHAR(10),"        }"),""),CHAR(10),"    }"),"")</f>
         <v/>
       </c>
       <c r="AM133" s="14"/>
@@ -22792,7 +22828,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>595</v>
       </c>
@@ -22865,11 +22901,12 @@
         <v>330</v>
       </c>
       <c r="AC134" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Ara_SensorBarometer_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -22883,7 +22920,7 @@
     @title = #$@PART[Ara_SensorBarometer_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Ara_SensorBarometer_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Ara_SensorBarometer_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Ara_SensorBarometer_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -22899,7 +22936,7 @@
       <c r="AJ134" s="18"/>
       <c r="AK134" s="18"/>
       <c r="AL134" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM134" s="14"/>
@@ -22936,7 +22973,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="135" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>595</v>
       </c>
@@ -23004,7 +23041,7 @@
         <v>330</v>
       </c>
       <c r="AC135" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -23033,7 +23070,7 @@
       <c r="AJ135" s="18"/>
       <c r="AK135" s="18"/>
       <c r="AL135" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM135" s="14"/>
@@ -23061,7 +23098,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>595</v>
       </c>
@@ -23134,11 +23171,12 @@
         <v>330</v>
       </c>
       <c r="AC136" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AC136:AC199" si="12">IF(P136="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A136,"]",CHAR(10),"{",CHAR(10),"    name = ",X136,CHAR(10),"    partIcon = ",C136,CHAR(10),"    entryCost = 1",CHAR(10),"    techRequired = ",AS136,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X136,"]:NEEDS[",A136,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C136,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AP136,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C136,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C136,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C136,"]:NEEDS[",A136,"]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",X136,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P136="System",P136="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A136,"]",CHAR(10),"{",CHAR(10),"    name = ",X136,"Upgrade",CHAR(10),"    partIcon = ",C136,CHAR(10),"    techRequired = ",AS136,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = INSERT HERE SYSTEM",CHAR(10),"    basicInfo = Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X136,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",X136,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Ara_SensorThermometer_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -23152,7 +23190,7 @@
     @title = #$@PART[Ara_SensorThermometer_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Ara_SensorThermometer_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Ara_SensorThermometer_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Ara_SensorThermometer_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -23168,7 +23206,7 @@
       <c r="AJ136" s="18"/>
       <c r="AK136" s="18"/>
       <c r="AL136" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM136" s="14"/>
@@ -23205,7 +23243,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="137" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>595</v>
       </c>
@@ -23273,7 +23311,7 @@
         <v>330</v>
       </c>
       <c r="AC137" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -23302,7 +23340,7 @@
       <c r="AJ137" s="18"/>
       <c r="AK137" s="18"/>
       <c r="AL137" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM137" s="14"/>
@@ -23330,7 +23368,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>595</v>
       </c>
@@ -23403,11 +23441,12 @@
         <v>330</v>
       </c>
       <c r="AC138" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = libra_crew_s0p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -23421,7 +23460,7 @@
     @title = #$@PART[libra_crew_s0p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[libra_crew_s0p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[libra_crew_s0p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[libra_crew_s0p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -23437,7 +23476,7 @@
       <c r="AJ138" s="18"/>
       <c r="AK138" s="18"/>
       <c r="AL138" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM138" s="14"/>
@@ -23474,7 +23513,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="139" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>595</v>
       </c>
@@ -23542,7 +23581,7 @@
         <v>330</v>
       </c>
       <c r="AC139" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -23571,7 +23610,7 @@
       <c r="AJ139" s="18"/>
       <c r="AK139" s="18"/>
       <c r="AL139" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM139" s="14"/>
@@ -23599,7 +23638,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>595</v>
       </c>
@@ -23672,11 +23711,12 @@
         <v>330</v>
       </c>
       <c r="AC140" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = libra_fuel_tank_s1_s0p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -23690,7 +23730,7 @@
     @title = #$@PART[libra_fuel_tank_s1_s0p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[libra_fuel_tank_s1_s0p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[libra_fuel_tank_s1_s0p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[libra_fuel_tank_s1_s0p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -23706,7 +23746,7 @@
       <c r="AJ140" s="18"/>
       <c r="AK140" s="18"/>
       <c r="AL140" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM140" s="14"/>
@@ -23743,7 +23783,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="141" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>595</v>
       </c>
@@ -23811,7 +23851,7 @@
         <v>330</v>
       </c>
       <c r="AC141" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -23840,7 +23880,7 @@
       <c r="AJ141" s="18"/>
       <c r="AK141" s="18"/>
       <c r="AL141" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM141" s="14"/>
@@ -23868,7 +23908,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>595</v>
       </c>
@@ -23941,11 +23981,12 @@
         <v>330</v>
       </c>
       <c r="AC142" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = libra_monopropellant_tank_s0_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -23959,7 +24000,7 @@
     @title = #$@PART[libra_monopropellant_tank_s0_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[libra_monopropellant_tank_s0_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[libra_monopropellant_tank_s0_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[libra_monopropellant_tank_s0_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -23975,7 +24016,7 @@
       <c r="AJ142" s="18"/>
       <c r="AK142" s="18"/>
       <c r="AL142" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM142" s="14"/>
@@ -24012,7 +24053,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="143" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>595</v>
       </c>
@@ -24080,7 +24121,7 @@
         <v>330</v>
       </c>
       <c r="AC143" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -24109,7 +24150,7 @@
       <c r="AJ143" s="18"/>
       <c r="AK143" s="18"/>
       <c r="AL143" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM143" s="14"/>
@@ -24137,7 +24178,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>595</v>
       </c>
@@ -24210,11 +24251,12 @@
         <v>330</v>
       </c>
       <c r="AC144" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = libra_rcs_srf_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -24228,7 +24270,7 @@
     @title = #$@PART[libra_rcs_srf_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[libra_rcs_srf_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[libra_rcs_srf_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[libra_rcs_srf_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -24244,7 +24286,7 @@
       <c r="AJ144" s="18"/>
       <c r="AK144" s="18"/>
       <c r="AL144" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM144" s="14"/>
@@ -24281,7 +24323,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="145" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>595</v>
       </c>
@@ -24349,7 +24391,7 @@
         <v>330</v>
       </c>
       <c r="AC145" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -24378,7 +24420,7 @@
       <c r="AJ145" s="18"/>
       <c r="AK145" s="18"/>
       <c r="AL145" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM145" s="14"/>
@@ -24406,7 +24448,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>595</v>
       </c>
@@ -24479,11 +24521,12 @@
         <v>330</v>
       </c>
       <c r="AC146" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Auriga_DrogueParachute_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -24497,7 +24540,7 @@
     @title = #$@PART[Auriga_DrogueParachute_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Auriga_DrogueParachute_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Auriga_DrogueParachute_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Auriga_DrogueParachute_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -24513,7 +24556,7 @@
       <c r="AJ146" s="18"/>
       <c r="AK146" s="18"/>
       <c r="AL146" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM146" s="14"/>
@@ -24550,7 +24593,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="147" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>595</v>
       </c>
@@ -24618,7 +24661,7 @@
         <v>330</v>
       </c>
       <c r="AC147" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -24647,7 +24690,7 @@
       <c r="AJ147" s="18"/>
       <c r="AK147" s="18"/>
       <c r="AL147" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM147" s="14"/>
@@ -24675,7 +24718,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>595</v>
       </c>
@@ -24748,11 +24791,12 @@
         <v>330</v>
       </c>
       <c r="AC148" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Auriga_Fuselage_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -24766,7 +24810,7 @@
     @title = #$@PART[Auriga_Fuselage_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Auriga_Fuselage_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Auriga_Fuselage_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Auriga_Fuselage_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -24782,7 +24826,7 @@
       <c r="AJ148" s="18"/>
       <c r="AK148" s="18"/>
       <c r="AL148" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM148" s="14"/>
@@ -24819,7 +24863,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="149" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>595</v>
       </c>
@@ -24887,7 +24931,7 @@
         <v>330</v>
       </c>
       <c r="AC149" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -24916,7 +24960,7 @@
       <c r="AJ149" s="18"/>
       <c r="AK149" s="18"/>
       <c r="AL149" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM149" s="14"/>
@@ -24944,7 +24988,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>595</v>
       </c>
@@ -25017,11 +25061,12 @@
         <v>330</v>
       </c>
       <c r="AC150" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquarius_crew_s1p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -25035,7 +25080,7 @@
     @title = #$@PART[aquarius_crew_s1p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquarius_crew_s1p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquarius_crew_s1p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquarius_crew_s1p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -25051,7 +25096,7 @@
       <c r="AJ150" s="18"/>
       <c r="AK150" s="18"/>
       <c r="AL150" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM150" s="14"/>
@@ -25088,7 +25133,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="151" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>595</v>
       </c>
@@ -25156,7 +25201,7 @@
         <v>330</v>
       </c>
       <c r="AC151" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -25185,7 +25230,7 @@
       <c r="AJ151" s="18"/>
       <c r="AK151" s="18"/>
       <c r="AL151" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM151" s="14"/>
@@ -25213,7 +25258,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>595</v>
       </c>
@@ -25286,11 +25331,12 @@
         <v>330</v>
       </c>
       <c r="AC152" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquarius_engine_mount_s1p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -25304,7 +25350,7 @@
     @title = #$@PART[aquarius_engine_mount_s1p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquarius_engine_mount_s1p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquarius_engine_mount_s1p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquarius_engine_mount_s1p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -25320,7 +25366,7 @@
       <c r="AJ152" s="18"/>
       <c r="AK152" s="18"/>
       <c r="AL152" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM152" s="14"/>
@@ -25357,7 +25403,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="153" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>595</v>
       </c>
@@ -25425,7 +25471,7 @@
         <v>330</v>
       </c>
       <c r="AC153" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -25454,7 +25500,7 @@
       <c r="AJ153" s="18"/>
       <c r="AK153" s="18"/>
       <c r="AL153" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM153" s="14"/>
@@ -25482,7 +25528,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>595</v>
       </c>
@@ -25555,11 +25601,12 @@
         <v>330</v>
       </c>
       <c r="AC154" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquarius_fuselage_s1p5_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -25573,7 +25620,7 @@
     @title = #$@PART[aquarius_fuselage_s1p5_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquarius_fuselage_s1p5_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquarius_fuselage_s1p5_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquarius_fuselage_s1p5_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -25589,7 +25636,7 @@
       <c r="AJ154" s="18"/>
       <c r="AK154" s="18"/>
       <c r="AL154" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM154" s="14"/>
@@ -25626,7 +25673,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="155" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>595</v>
       </c>
@@ -25694,7 +25741,7 @@
         <v>330</v>
       </c>
       <c r="AC155" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -25723,7 +25770,7 @@
       <c r="AJ155" s="18"/>
       <c r="AK155" s="18"/>
       <c r="AL155" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM155" s="14"/>
@@ -25751,7 +25798,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>595</v>
       </c>
@@ -25824,11 +25871,12 @@
         <v>330</v>
       </c>
       <c r="AC156" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquarius_parachute_s0p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -25842,7 +25890,7 @@
     @title = #$@PART[aquarius_parachute_s0p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquarius_parachute_s0p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquarius_parachute_s0p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquarius_parachute_s0p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -25858,7 +25906,7 @@
       <c r="AJ156" s="18"/>
       <c r="AK156" s="18"/>
       <c r="AL156" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM156" s="14"/>
@@ -25895,7 +25943,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="157" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>595</v>
       </c>
@@ -25963,7 +26011,7 @@
         <v>330</v>
       </c>
       <c r="AC157" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -25992,7 +26040,7 @@
       <c r="AJ157" s="18"/>
       <c r="AK157" s="18"/>
       <c r="AL157" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM157" s="14"/>
@@ -26020,7 +26068,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>595</v>
       </c>
@@ -26093,11 +26141,12 @@
         <v>330</v>
       </c>
       <c r="AC158" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = aquarius_service_module_s1p5_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -26111,7 +26160,7 @@
     @title = #$@PART[aquarius_service_module_s1p5_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[aquarius_service_module_s1p5_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[aquarius_service_module_s1p5_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[aquarius_service_module_s1p5_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -26127,7 +26176,7 @@
       <c r="AJ158" s="18"/>
       <c r="AK158" s="18"/>
       <c r="AL158" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM158" s="14"/>
@@ -26164,7 +26213,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="159" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>595</v>
       </c>
@@ -26232,7 +26281,7 @@
         <v>330</v>
       </c>
       <c r="AC159" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -26261,7 +26310,7 @@
       <c r="AJ159" s="18"/>
       <c r="AK159" s="18"/>
       <c r="AL159" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM159" s="14"/>
@@ -26289,7 +26338,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>595</v>
       </c>
@@ -26362,11 +26411,12 @@
         <v>330</v>
       </c>
       <c r="AC160" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = virgo_engine_s1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -26380,7 +26430,7 @@
     @title = #$@PART[virgo_engine_s1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[virgo_engine_s1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[virgo_engine_s1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[virgo_engine_s1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -26396,7 +26446,7 @@
       <c r="AJ160" s="18"/>
       <c r="AK160" s="18"/>
       <c r="AL160" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM160" s="14"/>
@@ -26433,7 +26483,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="161" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>595</v>
       </c>
@@ -26501,7 +26551,7 @@
         <v>330</v>
       </c>
       <c r="AC161" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -26530,7 +26580,7 @@
       <c r="AJ161" s="18"/>
       <c r="AK161" s="18"/>
       <c r="AL161" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM161" s="14"/>
@@ -26558,7 +26608,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>595</v>
       </c>
@@ -26631,11 +26681,12 @@
         <v>330</v>
       </c>
       <c r="AC162" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = virgo_fuel_tank_s1_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -26649,7 +26700,7 @@
     @title = #$@PART[virgo_fuel_tank_s1_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[virgo_fuel_tank_s1_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[virgo_fuel_tank_s1_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[virgo_fuel_tank_s1_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -26665,7 +26716,7 @@
       <c r="AJ162" s="18"/>
       <c r="AK162" s="18"/>
       <c r="AL162" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM162" s="14"/>
@@ -26702,7 +26753,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="163" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>595</v>
       </c>
@@ -26770,7 +26821,7 @@
         <v>330</v>
       </c>
       <c r="AC163" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -26799,7 +26850,7 @@
       <c r="AJ163" s="18"/>
       <c r="AK163" s="18"/>
       <c r="AL163" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM163" s="14"/>
@@ -26827,7 +26878,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>595</v>
       </c>
@@ -26900,11 +26951,12 @@
         <v>330</v>
       </c>
       <c r="AC164" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = virgo_radiator_fuel_tank_s1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -26918,7 +26970,7 @@
     @title = #$@PART[virgo_radiator_fuel_tank_s1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[virgo_radiator_fuel_tank_s1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[virgo_radiator_fuel_tank_s1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[virgo_radiator_fuel_tank_s1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -26934,7 +26986,7 @@
       <c r="AJ164" s="18"/>
       <c r="AK164" s="18"/>
       <c r="AL164" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM164" s="14"/>
@@ -26971,7 +27023,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="165" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>595</v>
       </c>
@@ -27039,7 +27091,7 @@
         <v>330</v>
       </c>
       <c r="AC165" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -27068,7 +27120,7 @@
       <c r="AJ165" s="18"/>
       <c r="AK165" s="18"/>
       <c r="AL165" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM165" s="14"/>
@@ -27096,7 +27148,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>595</v>
       </c>
@@ -27169,11 +27221,12 @@
         <v>330</v>
       </c>
       <c r="AC166" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = dalim_adapter_s0p5_s0_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -27187,7 +27240,7 @@
     @title = #$@PART[dalim_adapter_s0p5_s0_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[dalim_adapter_s0p5_s0_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[dalim_adapter_s0p5_s0_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[dalim_adapter_s0p5_s0_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -27203,7 +27256,7 @@
       <c r="AJ166" s="18"/>
       <c r="AK166" s="18"/>
       <c r="AL166" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM166" s="14"/>
@@ -27240,7 +27293,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="167" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>595</v>
       </c>
@@ -27308,7 +27361,7 @@
         <v>330</v>
       </c>
       <c r="AC167" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -27337,7 +27390,7 @@
       <c r="AJ167" s="18"/>
       <c r="AK167" s="18"/>
       <c r="AL167" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM167" s="14"/>
@@ -27365,7 +27418,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>595</v>
       </c>
@@ -27438,11 +27491,12 @@
         <v>330</v>
       </c>
       <c r="AC168" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = dalim_materials_bay_s0p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -27456,7 +27510,7 @@
     @title = #$@PART[dalim_materials_bay_s0p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[dalim_materials_bay_s0p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[dalim_materials_bay_s0p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[dalim_materials_bay_s0p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -27472,7 +27526,7 @@
       <c r="AJ168" s="18"/>
       <c r="AK168" s="18"/>
       <c r="AL168" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM168" s="14"/>
@@ -27509,7 +27563,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="169" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>595</v>
       </c>
@@ -27577,7 +27631,7 @@
         <v>330</v>
       </c>
       <c r="AC169" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -27606,7 +27660,7 @@
       <c r="AJ169" s="18"/>
       <c r="AK169" s="18"/>
       <c r="AL169" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM169" s="14"/>
@@ -27634,7 +27688,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>595</v>
       </c>
@@ -27707,11 +27761,12 @@
         <v>330</v>
       </c>
       <c r="AC170" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = dalim_solar_srf_1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -27725,7 +27780,7 @@
     @title = #$@PART[dalim_solar_srf_1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[dalim_solar_srf_1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[dalim_solar_srf_1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[dalim_solar_srf_1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -27741,7 +27796,7 @@
       <c r="AJ170" s="18"/>
       <c r="AK170" s="18"/>
       <c r="AL170" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM170" s="14"/>
@@ -27778,7 +27833,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="171" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>595</v>
       </c>
@@ -27846,7 +27901,7 @@
         <v>330</v>
       </c>
       <c r="AC171" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -27875,7 +27930,7 @@
       <c r="AJ171" s="18"/>
       <c r="AK171" s="18"/>
       <c r="AL171" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM171" s="14"/>
@@ -27903,7 +27958,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>595</v>
       </c>
@@ -27976,11 +28031,12 @@
         <v>330</v>
       </c>
       <c r="AC172" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = eridani_crew_s1p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -27994,7 +28050,7 @@
     @title = #$@PART[eridani_crew_s1p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[eridani_crew_s1p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[eridani_crew_s1p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[eridani_crew_s1p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -28010,7 +28066,7 @@
       <c r="AJ172" s="18"/>
       <c r="AK172" s="18"/>
       <c r="AL172" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM172" s="14"/>
@@ -28047,7 +28103,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="173" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>595</v>
       </c>
@@ -28115,7 +28171,7 @@
         <v>330</v>
       </c>
       <c r="AC173" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -28144,7 +28200,7 @@
       <c r="AJ173" s="18"/>
       <c r="AK173" s="18"/>
       <c r="AL173" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM173" s="14"/>
@@ -28172,7 +28228,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>595</v>
       </c>
@@ -28245,11 +28301,12 @@
         <v>330</v>
       </c>
       <c r="AC174" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = eridani_crew_s2_s1p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -28263,7 +28320,7 @@
     @title = #$@PART[eridani_crew_s2_s1p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[eridani_crew_s2_s1p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[eridani_crew_s2_s1p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[eridani_crew_s2_s1p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -28279,7 +28336,7 @@
       <c r="AJ174" s="18"/>
       <c r="AK174" s="18"/>
       <c r="AL174" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM174" s="14"/>
@@ -28316,7 +28373,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="175" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>595</v>
       </c>
@@ -28384,7 +28441,7 @@
         <v>330</v>
       </c>
       <c r="AC175" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -28413,7 +28470,7 @@
       <c r="AJ175" s="18"/>
       <c r="AK175" s="18"/>
       <c r="AL175" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM175" s="14"/>
@@ -28441,7 +28498,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>595</v>
       </c>
@@ -28514,11 +28571,12 @@
         <v>330</v>
       </c>
       <c r="AC176" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = eridani_node_s0p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -28532,7 +28590,7 @@
     @title = #$@PART[eridani_node_s0p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[eridani_node_s0p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[eridani_node_s0p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[eridani_node_s0p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -28548,7 +28606,7 @@
       <c r="AJ176" s="18"/>
       <c r="AK176" s="18"/>
       <c r="AL176" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM176" s="14"/>
@@ -28585,7 +28643,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="177" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>595</v>
       </c>
@@ -28653,7 +28711,7 @@
         <v>330</v>
       </c>
       <c r="AC177" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -28682,7 +28740,7 @@
       <c r="AJ177" s="18"/>
       <c r="AK177" s="18"/>
       <c r="AL177" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM177" s="14"/>
@@ -28710,7 +28768,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>595</v>
       </c>
@@ -28783,11 +28841,12 @@
         <v>330</v>
       </c>
       <c r="AC178" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = acamar_adapter_s2_s0p5_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -28801,7 +28860,7 @@
     @title = #$@PART[acamar_adapter_s2_s0p5_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[acamar_adapter_s2_s0p5_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[acamar_adapter_s2_s0p5_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[acamar_adapter_s2_s0p5_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -28817,7 +28876,7 @@
       <c r="AJ178" s="18"/>
       <c r="AK178" s="18"/>
       <c r="AL178" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM178" s="14"/>
@@ -28854,7 +28913,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="179" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>595</v>
       </c>
@@ -28922,7 +28981,7 @@
         <v>330</v>
       </c>
       <c r="AC179" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -28951,7 +29010,7 @@
       <c r="AJ179" s="18"/>
       <c r="AK179" s="18"/>
       <c r="AL179" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM179" s="14"/>
@@ -28979,7 +29038,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>595</v>
       </c>
@@ -29052,11 +29111,12 @@
         <v>330</v>
       </c>
       <c r="AC180" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = acamar_adapter_s2_s1_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -29070,7 +29130,7 @@
     @title = #$@PART[acamar_adapter_s2_s1_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[acamar_adapter_s2_s1_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[acamar_adapter_s2_s1_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[acamar_adapter_s2_s1_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -29086,7 +29146,7 @@
       <c r="AJ180" s="18"/>
       <c r="AK180" s="18"/>
       <c r="AL180" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM180" s="14"/>
@@ -29123,7 +29183,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="181" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>595</v>
       </c>
@@ -29191,7 +29251,7 @@
         <v>330</v>
       </c>
       <c r="AC181" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -29220,7 +29280,7 @@
       <c r="AJ181" s="18"/>
       <c r="AK181" s="18"/>
       <c r="AL181" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM181" s="14"/>
@@ -29248,7 +29308,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>595</v>
       </c>
@@ -29321,11 +29381,12 @@
         <v>330</v>
       </c>
       <c r="AC182" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = acamar_adapter_s2_s1p5_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -29339,7 +29400,7 @@
     @title = #$@PART[acamar_adapter_s2_s1p5_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[acamar_adapter_s2_s1p5_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[acamar_adapter_s2_s1p5_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[acamar_adapter_s2_s1p5_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -29355,7 +29416,7 @@
       <c r="AJ182" s="18"/>
       <c r="AK182" s="18"/>
       <c r="AL182" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM182" s="14"/>
@@ -29392,7 +29453,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="183" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>595</v>
       </c>
@@ -29460,7 +29521,7 @@
         <v>330</v>
       </c>
       <c r="AC183" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -29489,7 +29550,7 @@
       <c r="AJ183" s="18"/>
       <c r="AK183" s="18"/>
       <c r="AL183" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM183" s="14"/>
@@ -29517,7 +29578,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>595</v>
       </c>
@@ -29590,11 +29651,12 @@
         <v>330</v>
       </c>
       <c r="AC184" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = acamar_crew_s2_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -29608,7 +29670,7 @@
     @title = #$@PART[acamar_crew_s2_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[acamar_crew_s2_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[acamar_crew_s2_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[acamar_crew_s2_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -29624,7 +29686,7 @@
       <c r="AJ184" s="18"/>
       <c r="AK184" s="18"/>
       <c r="AL184" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM184" s="14"/>
@@ -29661,7 +29723,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="185" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>595</v>
       </c>
@@ -29729,7 +29791,7 @@
         <v>330</v>
       </c>
       <c r="AC185" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -29758,7 +29820,7 @@
       <c r="AJ185" s="18"/>
       <c r="AK185" s="18"/>
       <c r="AL185" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM185" s="14"/>
@@ -29786,7 +29848,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>595</v>
       </c>
@@ -29859,11 +29921,12 @@
         <v>330</v>
       </c>
       <c r="AC186" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = nashira_crew_s1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -29877,7 +29940,7 @@
     @title = #$@PART[nashira_crew_s1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[nashira_crew_s1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[nashira_crew_s1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[nashira_crew_s1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -29893,7 +29956,7 @@
       <c r="AJ186" s="18"/>
       <c r="AK186" s="18"/>
       <c r="AL186" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM186" s="14"/>
@@ -29930,7 +29993,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="187" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>595</v>
       </c>
@@ -29998,7 +30061,7 @@
         <v>330</v>
       </c>
       <c r="AC187" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -30027,7 +30090,7 @@
       <c r="AJ187" s="18"/>
       <c r="AK187" s="18"/>
       <c r="AL187" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM187" s="14"/>
@@ -30055,7 +30118,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>595</v>
       </c>
@@ -30128,11 +30191,12 @@
         <v>330</v>
       </c>
       <c r="AC188" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = nashira_truss_s1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -30146,7 +30210,7 @@
     @title = #$@PART[nashira_truss_s1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[nashira_truss_s1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[nashira_truss_s1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[nashira_truss_s1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -30162,7 +30226,7 @@
       <c r="AJ188" s="18"/>
       <c r="AK188" s="18"/>
       <c r="AL188" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM188" s="14"/>
@@ -30199,7 +30263,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="189" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>595</v>
       </c>
@@ -30267,7 +30331,7 @@
         <v>330</v>
       </c>
       <c r="AC189" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -30296,7 +30360,7 @@
       <c r="AJ189" s="18"/>
       <c r="AK189" s="18"/>
       <c r="AL189" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM189" s="14"/>
@@ -30324,7 +30388,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>595</v>
       </c>
@@ -30397,11 +30461,12 @@
         <v>330</v>
       </c>
       <c r="AC190" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = hadar_adapter_s1_s0p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -30415,7 +30480,7 @@
     @title = #$@PART[hadar_adapter_s1_s0p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[hadar_adapter_s1_s0p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[hadar_adapter_s1_s0p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[hadar_adapter_s1_s0p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -30431,7 +30496,7 @@
       <c r="AJ190" s="18"/>
       <c r="AK190" s="18"/>
       <c r="AL190" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM190" s="14"/>
@@ -30468,7 +30533,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="191" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>595</v>
       </c>
@@ -30536,7 +30601,7 @@
         <v>330</v>
       </c>
       <c r="AC191" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -30565,7 +30630,7 @@
       <c r="AJ191" s="18"/>
       <c r="AK191" s="18"/>
       <c r="AL191" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM191" s="14"/>
@@ -30593,7 +30658,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>595</v>
       </c>
@@ -30666,11 +30731,12 @@
         <v>330</v>
       </c>
       <c r="AC192" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = hadar_crew_s1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -30684,7 +30750,7 @@
     @title = #$@PART[hadar_crew_s1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[hadar_crew_s1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[hadar_crew_s1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[hadar_crew_s1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -30700,7 +30766,7 @@
       <c r="AJ192" s="18"/>
       <c r="AK192" s="18"/>
       <c r="AL192" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM192" s="14"/>
@@ -30737,7 +30803,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="193" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>595</v>
       </c>
@@ -30805,7 +30871,7 @@
         <v>330</v>
       </c>
       <c r="AC193" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -30834,7 +30900,7 @@
       <c r="AJ193" s="18"/>
       <c r="AK193" s="18"/>
       <c r="AL193" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM193" s="14"/>
@@ -30862,7 +30928,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>595</v>
       </c>
@@ -30935,11 +31001,12 @@
         <v>330</v>
       </c>
       <c r="AC194" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = hadar_fuselage_s1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -30953,7 +31020,7 @@
     @title = #$@PART[hadar_fuselage_s1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[hadar_fuselage_s1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[hadar_fuselage_s1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[hadar_fuselage_s1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -30969,7 +31036,7 @@
       <c r="AJ194" s="18"/>
       <c r="AK194" s="18"/>
       <c r="AL194" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM194" s="14"/>
@@ -31006,7 +31073,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="195" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>595</v>
       </c>
@@ -31074,7 +31141,7 @@
         <v>330</v>
       </c>
       <c r="AC195" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -31103,7 +31170,7 @@
       <c r="AJ195" s="18"/>
       <c r="AK195" s="18"/>
       <c r="AL195" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM195" s="14"/>
@@ -31131,7 +31198,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>595</v>
       </c>
@@ -31204,11 +31271,12 @@
         <v>330</v>
       </c>
       <c r="AC196" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = rotanev_aeroshell_s2_s1p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -31222,7 +31290,7 @@
     @title = #$@PART[rotanev_aeroshell_s2_s1p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[rotanev_aeroshell_s2_s1p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[rotanev_aeroshell_s2_s1p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[rotanev_aeroshell_s2_s1p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -31238,7 +31306,7 @@
       <c r="AJ196" s="18"/>
       <c r="AK196" s="18"/>
       <c r="AL196" s="19" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AM196" s="14"/>
@@ -31275,7 +31343,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="197" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>595</v>
       </c>
@@ -31343,7 +31411,7 @@
         <v>330</v>
       </c>
       <c r="AC197" s="12" t="str">
-        <f t="shared" ref="AC197:AC199" si="14">IF(P197="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A197,"]",CHAR(10),"{",CHAR(10),"    name = ",X197,CHAR(10),"    partIcon = ",C197,CHAR(10),"    techRequired = ",AS197,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X197,"]:NEEDS[",A197,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C197,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AP197,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C197,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C197,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C197,"]:NEEDS[",A197,"]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",X197,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P197="System",P197="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A197,"]",CHAR(10),"{",CHAR(10),"    name = ",X197,"Upgrade",CHAR(10),"    partIcon = ",C197,CHAR(10),"    techRequired = ",AS197,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = INSERT HERE SYSTEM",CHAR(10),"    basicInfo = Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X197,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",X197,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -31372,7 +31440,7 @@
       <c r="AJ197" s="18"/>
       <c r="AK197" s="18"/>
       <c r="AL197" s="19" t="str">
-        <f t="shared" ref="AL197:AL199" si="15">IF(AE197="Yes",_xlfn.CONCAT("    @MODULE[ModuleEngines*]",CHAR(10),"    {",IF(AF197&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        @maxThrust = ",AF197),""),IF(AG197&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        !atmosphereCurve {}",CHAR(10),"        atmosphereCurve",CHAR(10),"        {",IF(AG197&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AG197),""),IF(AH197&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AH197),""),IF(AI197&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AI197),""),IF(AJ197&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AJ197),""),IF(AK197&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AK197),""),CHAR(10),"        }"),""),CHAR(10),"    }"),"")</f>
+        <f t="shared" ref="AL197:AL199" si="14">IF(AE197="Yes",_xlfn.CONCAT("    @MODULE[ModuleEngines*]",CHAR(10),"    {",IF(AF197&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        @maxThrust = ",AF197),""),IF(AG197&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        !atmosphereCurve {}",CHAR(10),"        atmosphereCurve",CHAR(10),"        {",IF(AG197&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AG197),""),IF(AH197&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AH197),""),IF(AI197&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AI197),""),IF(AJ197&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AJ197),""),IF(AK197&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AK197),""),CHAR(10),"        }"),""),CHAR(10),"    }"),"")</f>
         <v/>
       </c>
       <c r="AM197" s="14"/>
@@ -31400,7 +31468,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>595</v>
       </c>
@@ -31473,11 +31541,12 @@
         <v>330</v>
       </c>
       <c r="AC198" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = rotanev_battery_s2_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -31491,7 +31560,7 @@
     @title = #$@PART[rotanev_battery_s2_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[rotanev_battery_s2_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[rotanev_battery_s2_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[rotanev_battery_s2_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -31507,7 +31576,7 @@
       <c r="AJ198" s="18"/>
       <c r="AK198" s="18"/>
       <c r="AL198" s="19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AM198" s="14"/>
@@ -31544,7 +31613,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="199" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>595</v>
       </c>
@@ -31612,7 +31681,7 @@
         <v>330</v>
       </c>
       <c r="AC199" s="12" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -31641,7 +31710,7 @@
       <c r="AJ199" s="18"/>
       <c r="AK199" s="18"/>
       <c r="AL199" s="19" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AM199" s="14"/>
@@ -31669,7 +31738,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>595</v>
       </c>
@@ -31701,7 +31770,7 @@
         <v>144</v>
       </c>
       <c r="L200" s="12" t="str">
-        <f t="shared" ref="L200:L263" si="16">_xlfn.CONCAT("@PART[",C200,"]:AFTER[",A200,"] // ",IF(Q200="",D200,_xlfn.CONCAT(Q200," (",D200,")")),CHAR(10),"{",CHAR(10),"    @TechRequired = ",M200,IF($Q200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q200),""),IF($R200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R200),""),IF($S200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S200),""),IF($T200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T200),""),IF($U200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),U200),""),IF($AN200&lt;&gt;"",IF(P200="RTG","",_xlfn.CONCAT(CHAR(10),$AN200)),""),IF(AL200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AL200),""),CHAR(10),"}",IF(AA200="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C200,"]:NEEDS[KiwiDeprecate]:AFTER[",A200,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""),IF(P200="RTG",AN200,""))</f>
+        <f t="shared" ref="L200:L263" si="15">_xlfn.CONCAT("@PART[",C200,"]:AFTER[",A200,"] // ",IF(Q200="",D200,_xlfn.CONCAT(Q200," (",D200,")")),CHAR(10),"{",CHAR(10),"    @TechRequired = ",M200,IF($Q200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q200),""),IF($R200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R200),""),IF($S200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S200),""),IF($T200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T200),""),IF($U200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),U200),""),IF($AN200&lt;&gt;"",IF(P200="RTG","",_xlfn.CONCAT(CHAR(10),$AN200)),""),IF(AL200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AL200),""),CHAR(10),"}",IF(AA200="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C200,"]:NEEDS[KiwiDeprecate]:AFTER[",A200,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""),IF(P200="RTG",AN200,""))</f>
         <v>@PART[rotanev_cap_s0p5_1]:AFTER[Tantares] // Rotanev Size 0.5 Structural Cap
 {
     @TechRequired = Not Valid Combination
@@ -31742,11 +31811,12 @@
         <v>330</v>
       </c>
       <c r="AC200" s="12" t="str">
-        <f t="shared" ref="AC200:AC263" si="17">IF(P200="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A200,"]",CHAR(10),"{",CHAR(10),"    name = ",X200,CHAR(10),"    partIcon = ",C200,CHAR(10),"    techRequired = ",AS200,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X200,"]:NEEDS[",A200,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C200,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AP200,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C200,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C200,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C200,"]:NEEDS[",A200,"]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",X200,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P200="System",P200="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A200,"]",CHAR(10),"{",CHAR(10),"    name = ",X200,"Upgrade",CHAR(10),"    partIcon = ",C200,CHAR(10),"    techRequired = ",AS200,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = INSERT HERE SYSTEM",CHAR(10),"    basicInfo = Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X200,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",X200,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
+        <f t="shared" ref="AC200:AC263" si="16">IF(P200="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A200,"]",CHAR(10),"{",CHAR(10),"    name = ",X200,CHAR(10),"    partIcon = ",C200,CHAR(10),"    entryCost = 1",CHAR(10),"    techRequired = ",AS200,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X200,"]:NEEDS[",A200,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C200,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AP200,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C200,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C200,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C200,"]:NEEDS[",A200,"]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",X200,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P200="System",P200="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A200,"]",CHAR(10),"{",CHAR(10),"    name = ",X200,"Upgrade",CHAR(10),"    partIcon = ",C200,CHAR(10),"    techRequired = ",AS200,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = INSERT HERE SYSTEM",CHAR(10),"    basicInfo = Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X200,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",X200,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = rotanev_cap_s0p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -31760,7 +31830,7 @@
     @title = #$@PART[rotanev_cap_s0p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[rotanev_cap_s0p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[rotanev_cap_s0p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[rotanev_cap_s0p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -31776,7 +31846,7 @@
       <c r="AJ200" s="18"/>
       <c r="AK200" s="18"/>
       <c r="AL200" s="19" t="str">
-        <f t="shared" ref="AL200:AL263" si="18">IF(AE200="Yes",_xlfn.CONCAT("    @MODULE[ModuleEngines*]",CHAR(10),"    {",IF(AF200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        @maxThrust = ",AF200),""),IF(AG200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        !atmosphereCurve {}",CHAR(10),"        atmosphereCurve",CHAR(10),"        {",IF(AG200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AG200),""),IF(AH200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AH200),""),IF(AI200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AI200),""),IF(AJ200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AJ200),""),IF(AK200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AK200),""),CHAR(10),"        }"),""),CHAR(10),"    }"),"")</f>
+        <f t="shared" ref="AL200:AL263" si="17">IF(AE200="Yes",_xlfn.CONCAT("    @MODULE[ModuleEngines*]",CHAR(10),"    {",IF(AF200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        @maxThrust = ",AF200),""),IF(AG200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        !atmosphereCurve {}",CHAR(10),"        atmosphereCurve",CHAR(10),"        {",IF(AG200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AG200),""),IF(AH200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AH200),""),IF(AI200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AI200),""),IF(AJ200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AJ200),""),IF(AK200&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AK200),""),CHAR(10),"        }"),""),CHAR(10),"    }"),"")</f>
         <v/>
       </c>
       <c r="AM200" s="14"/>
@@ -31813,7 +31883,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="201" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>595</v>
       </c>
@@ -31845,7 +31915,7 @@
         <v>144</v>
       </c>
       <c r="L201" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rotanev_cap_s1_1]:AFTER[Tantares] // Rotanev Size 1 Structural Cap
 {
     @TechRequired = Not Valid Combination
@@ -31881,7 +31951,7 @@
         <v>330</v>
       </c>
       <c r="AC201" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -31910,7 +31980,7 @@
       <c r="AJ201" s="18"/>
       <c r="AK201" s="18"/>
       <c r="AL201" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM201" s="14"/>
@@ -31938,7 +32008,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>595</v>
       </c>
@@ -31970,7 +32040,7 @@
         <v>144</v>
       </c>
       <c r="L202" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rotanev_cap_s1p5_1]:AFTER[Tantares] // Rotanev Size 1.5 Structural Cap
 {
     @TechRequired = Not Valid Combination
@@ -32011,11 +32081,12 @@
         <v>330</v>
       </c>
       <c r="AC202" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = rotanev_cap_s1p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -32029,7 +32100,7 @@
     @title = #$@PART[rotanev_cap_s1p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[rotanev_cap_s1p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[rotanev_cap_s1p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[rotanev_cap_s1p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -32045,7 +32116,7 @@
       <c r="AJ202" s="18"/>
       <c r="AK202" s="18"/>
       <c r="AL202" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM202" s="14"/>
@@ -32082,7 +32153,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="203" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>595</v>
       </c>
@@ -32114,7 +32185,7 @@
         <v>144</v>
       </c>
       <c r="L203" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rotanev_control_s2_1]:AFTER[Tantares] // Rotanev 25-A "Spordress" Control Block
 {
     @TechRequired = Not Valid Combination
@@ -32150,7 +32221,7 @@
         <v>330</v>
       </c>
       <c r="AC203" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -32179,7 +32250,7 @@
       <c r="AJ203" s="18"/>
       <c r="AK203" s="18"/>
       <c r="AL203" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM203" s="14"/>
@@ -32207,7 +32278,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>595</v>
       </c>
@@ -32239,7 +32310,7 @@
         <v>144</v>
       </c>
       <c r="L204" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rotanev_crew_s2_1_1]:AFTER[Tantares] // Rotanev 25-A1 "IllevarslendetÃ¥rn" Crew Compartment A
 {
     @TechRequired = Not Valid Combination
@@ -32280,11 +32351,12 @@
         <v>330</v>
       </c>
       <c r="AC204" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = rotanev_crew_s2_1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -32298,7 +32370,7 @@
     @title = #$@PART[rotanev_crew_s2_1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[rotanev_crew_s2_1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[rotanev_crew_s2_1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[rotanev_crew_s2_1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -32314,7 +32386,7 @@
       <c r="AJ204" s="18"/>
       <c r="AK204" s="18"/>
       <c r="AL204" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM204" s="14"/>
@@ -32351,7 +32423,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="205" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>595</v>
       </c>
@@ -32383,7 +32455,7 @@
         <v>144</v>
       </c>
       <c r="L205" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rotanev_crew_s2_1_2]:AFTER[Tantares] // Rotanev 25-A2 "IllevarslendetÃ¥rn" Crew Compartment B
 {
     @TechRequired = Not Valid Combination
@@ -32419,7 +32491,7 @@
         <v>330</v>
       </c>
       <c r="AC205" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -32448,7 +32520,7 @@
       <c r="AJ205" s="18"/>
       <c r="AK205" s="18"/>
       <c r="AL205" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM205" s="14"/>
@@ -32476,7 +32548,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>595</v>
       </c>
@@ -32508,7 +32580,7 @@
         <v>144</v>
       </c>
       <c r="L206" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rotanev_fuel_tank_s0p5_1]:AFTER[Tantares] // Rotanev Size 0.5 Fuel Tank A
 {
     @TechRequired = Not Valid Combination
@@ -32549,11 +32621,12 @@
         <v>330</v>
       </c>
       <c r="AC206" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = rotanev_fuel_tank_s0p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -32567,7 +32640,7 @@
     @title = #$@PART[rotanev_fuel_tank_s0p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[rotanev_fuel_tank_s0p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[rotanev_fuel_tank_s0p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[rotanev_fuel_tank_s0p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -32583,7 +32656,7 @@
       <c r="AJ206" s="18"/>
       <c r="AK206" s="18"/>
       <c r="AL206" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM206" s="14"/>
@@ -32620,7 +32693,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="207" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>595</v>
       </c>
@@ -32652,7 +32725,7 @@
         <v>144</v>
       </c>
       <c r="L207" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rotanev_fuel_tank_s0p5_2]:AFTER[Tantares] // Rotanev Size 0.5 Fuel Tank B
 {
     @TechRequired = Not Valid Combination
@@ -32688,7 +32761,7 @@
         <v>330</v>
       </c>
       <c r="AC207" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -32717,7 +32790,7 @@
       <c r="AJ207" s="18"/>
       <c r="AK207" s="18"/>
       <c r="AL207" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM207" s="14"/>
@@ -32745,7 +32818,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>595</v>
       </c>
@@ -32777,7 +32850,7 @@
         <v>144</v>
       </c>
       <c r="L208" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rotanev_fuselage_s2_1]:AFTER[Tantares] // Rotanev Size 2 Structural Fuselage A
 {
     @TechRequired = Not Valid Combination
@@ -32818,11 +32891,12 @@
         <v>330</v>
       </c>
       <c r="AC208" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = rotanev_fuselage_s2_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -32836,7 +32910,7 @@
     @title = #$@PART[rotanev_fuselage_s2_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[rotanev_fuselage_s2_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[rotanev_fuselage_s2_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[rotanev_fuselage_s2_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -32852,7 +32926,7 @@
       <c r="AJ208" s="18"/>
       <c r="AK208" s="18"/>
       <c r="AL208" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM208" s="14"/>
@@ -32889,7 +32963,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="209" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>595</v>
       </c>
@@ -32921,7 +32995,7 @@
         <v>144</v>
       </c>
       <c r="L209" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rotanev_fuselage_s2_2]:AFTER[Tantares] // Rotanev Size 2 Structural Fuselage B
 {
     @TechRequired = Not Valid Combination
@@ -32957,7 +33031,7 @@
         <v>330</v>
       </c>
       <c r="AC209" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -32986,7 +33060,7 @@
       <c r="AJ209" s="18"/>
       <c r="AK209" s="18"/>
       <c r="AL209" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM209" s="14"/>
@@ -33014,7 +33088,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>595</v>
       </c>
@@ -33046,7 +33120,7 @@
         <v>144</v>
       </c>
       <c r="L210" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rotanev_nose_cone_s0p5_1]:AFTER[Tantares] // Rotanev Size 0.5 Nose Cone A
 {
     @TechRequired = Not Valid Combination
@@ -33087,11 +33161,12 @@
         <v>330</v>
       </c>
       <c r="AC210" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = rotanev_nose_cone_s0p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -33105,7 +33180,7 @@
     @title = #$@PART[rotanev_nose_cone_s0p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[rotanev_nose_cone_s0p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[rotanev_nose_cone_s0p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[rotanev_nose_cone_s0p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -33121,7 +33196,7 @@
       <c r="AJ210" s="18"/>
       <c r="AK210" s="18"/>
       <c r="AL210" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM210" s="14"/>
@@ -33158,7 +33233,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="211" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>595</v>
       </c>
@@ -33190,7 +33265,7 @@
         <v>144</v>
       </c>
       <c r="L211" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rotanev_nose_cone_s0p5_2]:AFTER[Tantares] // Rotanev Size 0.5 Nose Cone B
 {
     @TechRequired = Not Valid Combination
@@ -33226,7 +33301,7 @@
         <v>330</v>
       </c>
       <c r="AC211" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -33255,7 +33330,7 @@
       <c r="AJ211" s="18"/>
       <c r="AK211" s="18"/>
       <c r="AL211" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM211" s="14"/>
@@ -33283,7 +33358,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>595</v>
       </c>
@@ -33315,7 +33390,7 @@
         <v>144</v>
       </c>
       <c r="L212" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rotanev_rcs_block_srf_1]:AFTER[Tantares] // Rotanev RCS Block A
 {
     @TechRequired = Not Valid Combination
@@ -33356,11 +33431,12 @@
         <v>330</v>
       </c>
       <c r="AC212" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = rotanev_rcs_block_srf_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -33374,7 +33450,7 @@
     @title = #$@PART[rotanev_rcs_block_srf_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[rotanev_rcs_block_srf_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[rotanev_rcs_block_srf_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[rotanev_rcs_block_srf_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -33390,7 +33466,7 @@
       <c r="AJ212" s="18"/>
       <c r="AK212" s="18"/>
       <c r="AL212" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM212" s="14"/>
@@ -33427,7 +33503,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="213" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>595</v>
       </c>
@@ -33459,7 +33535,7 @@
         <v>144</v>
       </c>
       <c r="L213" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rotanev_rcs_block_srf_2]:AFTER[Tantares] // Rotanev RCS Block B
 {
     @TechRequired = Not Valid Combination
@@ -33495,7 +33571,7 @@
         <v>330</v>
       </c>
       <c r="AC213" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -33524,7 +33600,7 @@
       <c r="AJ213" s="18"/>
       <c r="AK213" s="18"/>
       <c r="AL213" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM213" s="14"/>
@@ -33552,7 +33628,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>595</v>
       </c>
@@ -33584,7 +33660,7 @@
         <v>23</v>
       </c>
       <c r="L214" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[Hamal_Avionics_1]:AFTER[Tantares] // Hamal CA1 Avionics Hub
 {
     @TechRequired = Not Valid Combination
@@ -33625,11 +33701,12 @@
         <v>330</v>
       </c>
       <c r="AC214" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Hamal_Avionics_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -33643,7 +33720,7 @@
     @title = #$@PART[Hamal_Avionics_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Hamal_Avionics_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Hamal_Avionics_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Hamal_Avionics_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -33659,7 +33736,7 @@
       <c r="AJ214" s="18"/>
       <c r="AK214" s="18"/>
       <c r="AL214" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM214" s="14"/>
@@ -33696,7 +33773,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="215" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>595</v>
       </c>
@@ -33728,7 +33805,7 @@
         <v>39</v>
       </c>
       <c r="L215" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[Hamal_Battery_1]:AFTER[Tantares] // Hamal LI1 Single Block Battery
 {
     @TechRequired = Not Valid Combination
@@ -33764,7 +33841,7 @@
         <v>330</v>
       </c>
       <c r="AC215" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -33793,7 +33870,7 @@
       <c r="AJ215" s="18"/>
       <c r="AK215" s="18"/>
       <c r="AL215" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM215" s="14"/>
@@ -33821,7 +33898,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>595</v>
       </c>
@@ -33853,7 +33930,7 @@
         <v>39</v>
       </c>
       <c r="L216" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[Hamal_Battery_2]:AFTER[Tantares] // Hamal LI2 Double Block Battery
 {
     @TechRequired = Not Valid Combination
@@ -33894,11 +33971,12 @@
         <v>330</v>
       </c>
       <c r="AC216" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Hamal_Battery_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -33912,7 +33990,7 @@
     @title = #$@PART[Hamal_Battery_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Hamal_Battery_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Hamal_Battery_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Hamal_Battery_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -33928,7 +34006,7 @@
       <c r="AJ216" s="18"/>
       <c r="AK216" s="18"/>
       <c r="AL216" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM216" s="14"/>
@@ -33965,7 +34043,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="217" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>595</v>
       </c>
@@ -33997,7 +34075,7 @@
         <v>23</v>
       </c>
       <c r="L217" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[Hamal_Control_1]:AFTER[Tantares] // Hamal PC1 Propellant Control Block
 {
     @TechRequired = Not Valid Combination
@@ -34033,7 +34111,7 @@
         <v>330</v>
       </c>
       <c r="AC217" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -34062,7 +34140,7 @@
       <c r="AJ217" s="18"/>
       <c r="AK217" s="18"/>
       <c r="AL217" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM217" s="14"/>
@@ -34090,7 +34168,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>595</v>
       </c>
@@ -34122,7 +34200,7 @@
         <v>23</v>
       </c>
       <c r="L218" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[Hamal_Control_2]:AFTER[Tantares] // Hamal PC2 Propellant Control Block
 {
     @TechRequired = Not Valid Combination
@@ -34163,11 +34241,12 @@
         <v>330</v>
       </c>
       <c r="AC218" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Hamal_Control_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -34181,7 +34260,7 @@
     @title = #$@PART[Hamal_Control_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Hamal_Control_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Hamal_Control_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Hamal_Control_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -34197,7 +34276,7 @@
       <c r="AJ218" s="18"/>
       <c r="AK218" s="18"/>
       <c r="AL218" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM218" s="14"/>
@@ -34234,7 +34313,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="219" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>595</v>
       </c>
@@ -34266,7 +34345,7 @@
         <v>23</v>
       </c>
       <c r="L219" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[Hamal_Habitation_1]:AFTER[Tantares] // Hamal FS1 Forward Section
 {
     @TechRequired = Not Valid Combination
@@ -34302,7 +34381,7 @@
         <v>330</v>
       </c>
       <c r="AC219" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -34331,7 +34410,7 @@
       <c r="AJ219" s="18"/>
       <c r="AK219" s="18"/>
       <c r="AL219" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM219" s="14"/>
@@ -34359,7 +34438,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>595</v>
       </c>
@@ -34391,7 +34470,7 @@
         <v>88</v>
       </c>
       <c r="L220" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_adapter_s1_s0_1]:AFTER[Tantares] // Vega Size 1 to Size 0 Inline Adapter
 {
     @TechRequired = Not Valid Combination
@@ -34432,11 +34511,12 @@
         <v>330</v>
       </c>
       <c r="AC220" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = vega_adapter_s1_s0_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -34450,7 +34530,7 @@
     @title = #$@PART[vega_adapter_s1_s0_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[vega_adapter_s1_s0_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[vega_adapter_s1_s0_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[vega_adapter_s1_s0_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -34466,7 +34546,7 @@
       <c r="AJ220" s="18"/>
       <c r="AK220" s="18"/>
       <c r="AL220" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM220" s="14"/>
@@ -34503,7 +34583,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="221" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>595</v>
       </c>
@@ -34535,7 +34615,7 @@
         <v>88</v>
       </c>
       <c r="L221" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_adapter_s1_s0p5_1]:AFTER[Tantares] // Vega Size 1 to Size 0.5 Inline Adapter
 {
     @TechRequired = Not Valid Combination
@@ -34571,7 +34651,7 @@
         <v>330</v>
       </c>
       <c r="AC221" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -34600,7 +34680,7 @@
       <c r="AJ221" s="18"/>
       <c r="AK221" s="18"/>
       <c r="AL221" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM221" s="14"/>
@@ -34628,7 +34708,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>595</v>
       </c>
@@ -34660,7 +34740,7 @@
         <v>88</v>
       </c>
       <c r="L222" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_adapter_s1p5_s0_1]:AFTER[Tantares] // Vega Size 1.5 to Size 0 Inline Adapter
 {
     @TechRequired = Not Valid Combination
@@ -34701,11 +34781,12 @@
         <v>330</v>
       </c>
       <c r="AC222" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = vega_adapter_s1p5_s0_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -34719,7 +34800,7 @@
     @title = #$@PART[vega_adapter_s1p5_s0_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[vega_adapter_s1p5_s0_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[vega_adapter_s1p5_s0_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[vega_adapter_s1p5_s0_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -34735,7 +34816,7 @@
       <c r="AJ222" s="18"/>
       <c r="AK222" s="18"/>
       <c r="AL222" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM222" s="14"/>
@@ -34772,7 +34853,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="223" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>595</v>
       </c>
@@ -34804,7 +34885,7 @@
         <v>88</v>
       </c>
       <c r="L223" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_adapter_s1p5_s0p5_1]:AFTER[Tantares] // Vega Size 1.5 to Size 0.5 Inline Adapter
 {
     @TechRequired = Not Valid Combination
@@ -34840,7 +34921,7 @@
         <v>330</v>
       </c>
       <c r="AC223" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -34869,7 +34950,7 @@
       <c r="AJ223" s="18"/>
       <c r="AK223" s="18"/>
       <c r="AL223" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM223" s="14"/>
@@ -34897,7 +34978,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>595</v>
       </c>
@@ -34929,7 +35010,7 @@
         <v>88</v>
       </c>
       <c r="L224" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_adapter_s1p5_s1_1]:AFTER[Tantares] // Vega Size 1.5 to Size 1 Inline Adapter
 {
     @TechRequired = Not Valid Combination
@@ -34970,11 +35051,12 @@
         <v>330</v>
       </c>
       <c r="AC224" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = vega_adapter_s1p5_s1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -34988,7 +35070,7 @@
     @title = #$@PART[vega_adapter_s1p5_s1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[vega_adapter_s1p5_s1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[vega_adapter_s1p5_s1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[vega_adapter_s1p5_s1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -35004,7 +35086,7 @@
       <c r="AJ224" s="18"/>
       <c r="AK224" s="18"/>
       <c r="AL224" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM224" s="14"/>
@@ -35041,7 +35123,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="225" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>595</v>
       </c>
@@ -35073,7 +35155,7 @@
         <v>88</v>
       </c>
       <c r="L225" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_adapter_s2_s1_1]:AFTER[Tantares] // Vega Size 2 to Size 1 Inline Adapter
 {
     @TechRequired = Not Valid Combination
@@ -35109,7 +35191,7 @@
         <v>330</v>
       </c>
       <c r="AC225" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -35138,7 +35220,7 @@
       <c r="AJ225" s="18"/>
       <c r="AK225" s="18"/>
       <c r="AL225" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM225" s="14"/>
@@ -35166,7 +35248,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>595</v>
       </c>
@@ -35198,7 +35280,7 @@
         <v>88</v>
       </c>
       <c r="L226" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_adapter_s2_s1p5_1]:AFTER[Tantares] // Vega Size 2 to Size 1.5 Inline Adapter
 {
     @TechRequired = Not Valid Combination
@@ -35239,11 +35321,12 @@
         <v>330</v>
       </c>
       <c r="AC226" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = vega_adapter_s2_s1p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -35257,7 +35340,7 @@
     @title = #$@PART[vega_adapter_s2_s1p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[vega_adapter_s2_s1p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[vega_adapter_s2_s1p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[vega_adapter_s2_s1p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -35273,7 +35356,7 @@
       <c r="AJ226" s="18"/>
       <c r="AK226" s="18"/>
       <c r="AL226" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM226" s="14"/>
@@ -35310,7 +35393,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="227" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>595</v>
       </c>
@@ -35342,7 +35425,7 @@
         <v>88</v>
       </c>
       <c r="L227" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_crew_s1_1_1]:AFTER[Tantares] // Vega 12-A1 "LuftlÃ¥s" Airlock Compartment
 {
     @TechRequired = Not Valid Combination
@@ -35378,7 +35461,7 @@
         <v>330</v>
       </c>
       <c r="AC227" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -35407,7 +35490,7 @@
       <c r="AJ227" s="18"/>
       <c r="AK227" s="18"/>
       <c r="AL227" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM227" s="14"/>
@@ -35435,7 +35518,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>595</v>
       </c>
@@ -35467,7 +35550,7 @@
         <v>88</v>
       </c>
       <c r="L228" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_crew_s1_1_2]:AFTER[Tantares] // Vega 12-A2 "LuftlÃ¥s" Airlock Compartment
 {
     @TechRequired = Not Valid Combination
@@ -35508,11 +35591,12 @@
         <v>330</v>
       </c>
       <c r="AC228" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = vega_crew_s1_1_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -35526,7 +35610,7 @@
     @title = #$@PART[vega_crew_s1_1_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[vega_crew_s1_1_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[vega_crew_s1_1_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[vega_crew_s1_1_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -35542,7 +35626,7 @@
       <c r="AJ228" s="18"/>
       <c r="AK228" s="18"/>
       <c r="AL228" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM228" s="14"/>
@@ -35579,7 +35663,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="229" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>595</v>
       </c>
@@ -35611,7 +35695,7 @@
         <v>88</v>
       </c>
       <c r="L229" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_crew_s1_2_1]:AFTER[Tantares] // Vega 12-B1 "Utgang" Airlock Compartment
 {
     @TechRequired = Not Valid Combination
@@ -35647,7 +35731,7 @@
         <v>330</v>
       </c>
       <c r="AC229" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -35676,7 +35760,7 @@
       <c r="AJ229" s="18"/>
       <c r="AK229" s="18"/>
       <c r="AL229" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM229" s="14"/>
@@ -35704,7 +35788,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>595</v>
       </c>
@@ -35736,7 +35820,7 @@
         <v>88</v>
       </c>
       <c r="L230" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_crew_s1p5_1_1]:AFTER[Tantares] // Vega 18-A1 "Nervesystemet" Command Module
 {
     @TechRequired = Not Valid Combination
@@ -35777,11 +35861,12 @@
         <v>330</v>
       </c>
       <c r="AC230" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = vega_crew_s1p5_1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -35795,7 +35880,7 @@
     @title = #$@PART[vega_crew_s1p5_1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[vega_crew_s1p5_1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[vega_crew_s1p5_1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[vega_crew_s1p5_1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -35811,7 +35896,7 @@
       <c r="AJ230" s="18"/>
       <c r="AK230" s="18"/>
       <c r="AL230" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM230" s="14"/>
@@ -35848,7 +35933,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="231" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>595</v>
       </c>
@@ -35880,7 +35965,7 @@
         <v>88</v>
       </c>
       <c r="L231" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_crew_s2_1_1]:AFTER[Tantares] // Vega 25-A1 "Halehvelv" Tail Compartment
 {
     @TechRequired = Not Valid Combination
@@ -35916,7 +36001,7 @@
         <v>330</v>
       </c>
       <c r="AC231" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -35945,7 +36030,7 @@
       <c r="AJ231" s="18"/>
       <c r="AK231" s="18"/>
       <c r="AL231" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM231" s="14"/>
@@ -35973,7 +36058,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>595</v>
       </c>
@@ -36005,7 +36090,7 @@
         <v>88</v>
       </c>
       <c r="L232" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_engine_srf_1_1]:AFTER[Tantares] // Vega OE1 "Spion" Rocket Engine
 {
     @TechRequired = Not Valid Combination
@@ -36046,11 +36131,12 @@
         <v>330</v>
       </c>
       <c r="AC232" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = vega_engine_srf_1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -36064,7 +36150,7 @@
     @title = #$@PART[vega_engine_srf_1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[vega_engine_srf_1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[vega_engine_srf_1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[vega_engine_srf_1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -36080,7 +36166,7 @@
       <c r="AJ232" s="18"/>
       <c r="AK232" s="18"/>
       <c r="AL232" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM232" s="14"/>
@@ -36117,7 +36203,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="233" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>595</v>
       </c>
@@ -36149,7 +36235,7 @@
         <v>88</v>
       </c>
       <c r="L233" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_engine_srf_1_2]:AFTER[Tantares] // Vega OE2 "Spion" Rocket Engine
 {
     @TechRequired = Not Valid Combination
@@ -36185,7 +36271,7 @@
         <v>330</v>
       </c>
       <c r="AC233" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -36214,7 +36300,7 @@
       <c r="AJ233" s="18"/>
       <c r="AK233" s="18"/>
       <c r="AL233" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM233" s="14"/>
@@ -36242,7 +36328,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>595</v>
       </c>
@@ -36274,7 +36360,7 @@
         <v>78</v>
       </c>
       <c r="L234" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_fuelsphere_srf_1]:AFTER[Tantares] // Vega LX25 Small Fuel Tank
 {
     @TechRequired = Not Valid Combination
@@ -36315,11 +36401,12 @@
         <v>330</v>
       </c>
       <c r="AC234" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = vega_fuelsphere_srf_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -36333,7 +36420,7 @@
     @title = #$@PART[vega_fuelsphere_srf_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[vega_fuelsphere_srf_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[vega_fuelsphere_srf_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[vega_fuelsphere_srf_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -36349,7 +36436,7 @@
       <c r="AJ234" s="18"/>
       <c r="AK234" s="18"/>
       <c r="AL234" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM234" s="14"/>
@@ -36386,7 +36473,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="235" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>595</v>
       </c>
@@ -36418,7 +36505,7 @@
         <v>78</v>
       </c>
       <c r="L235" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_fuelsphere_srf_2]:AFTER[Tantares] // Vega LX50 Small Fuel Tank
 {
     @TechRequired = Not Valid Combination
@@ -36454,7 +36541,7 @@
         <v>330</v>
       </c>
       <c r="AC235" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -36483,7 +36570,7 @@
       <c r="AJ235" s="18"/>
       <c r="AK235" s="18"/>
       <c r="AL235" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM235" s="14"/>
@@ -36511,7 +36598,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>595</v>
       </c>
@@ -36543,7 +36630,7 @@
         <v>88</v>
       </c>
       <c r="L236" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_fuselage_s1p5_1]:AFTER[Tantares] // Vega Size 1.5 Inline Fuselage A
 {
     @TechRequired = Not Valid Combination
@@ -36584,11 +36671,12 @@
         <v>330</v>
       </c>
       <c r="AC236" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = vega_fuselage_s1p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -36602,7 +36690,7 @@
     @title = #$@PART[vega_fuselage_s1p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[vega_fuselage_s1p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[vega_fuselage_s1p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[vega_fuselage_s1p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -36618,7 +36706,7 @@
       <c r="AJ236" s="18"/>
       <c r="AK236" s="18"/>
       <c r="AL236" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM236" s="14"/>
@@ -36655,7 +36743,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="237" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>595</v>
       </c>
@@ -36687,7 +36775,7 @@
         <v>88</v>
       </c>
       <c r="L237" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_fuselage_s1p5_2]:AFTER[Tantares] // Vega Size 1.5 Inline Fuselage B
 {
     @TechRequired = Not Valid Combination
@@ -36723,7 +36811,7 @@
         <v>330</v>
       </c>
       <c r="AC237" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -36752,7 +36840,7 @@
       <c r="AJ237" s="18"/>
       <c r="AK237" s="18"/>
       <c r="AL237" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM237" s="14"/>
@@ -36780,7 +36868,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>595</v>
       </c>
@@ -36812,7 +36900,7 @@
         <v>48</v>
       </c>
       <c r="L238" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[vega_solar_srf_1_1]:AFTER[Tantares] // Vega PVA1 Solar Array
 {
     @TechRequired = Not Valid Combination
@@ -36853,11 +36941,12 @@
         <v>330</v>
       </c>
       <c r="AC238" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = vega_solar_srf_1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -36871,7 +36960,7 @@
     @title = #$@PART[vega_solar_srf_1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[vega_solar_srf_1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[vega_solar_srf_1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[vega_solar_srf_1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -36887,7 +36976,7 @@
       <c r="AJ238" s="18"/>
       <c r="AK238" s="18"/>
       <c r="AL238" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM238" s="14"/>
@@ -36924,7 +37013,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="239" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>595</v>
       </c>
@@ -36956,7 +37045,7 @@
         <v>36</v>
       </c>
       <c r="L239" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tucana_adapter_s1_s0p5_1]:AFTER[Tantares] // Tucana Size 1 to Size 0.5 Forward Adapter
 {
     @TechRequired = Not Valid Combination
@@ -36992,7 +37081,7 @@
         <v>330</v>
       </c>
       <c r="AC239" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -37021,7 +37110,7 @@
       <c r="AJ239" s="18"/>
       <c r="AK239" s="18"/>
       <c r="AL239" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM239" s="14"/>
@@ -37049,7 +37138,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>595</v>
       </c>
@@ -37081,7 +37170,7 @@
         <v>36</v>
       </c>
       <c r="L240" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tucana_adapter_s1_s0_1]:AFTER[Tantares] // Tucana Size 1 to Size 0 Forward Adapter
 {
     @TechRequired = Not Valid Combination
@@ -37122,11 +37211,12 @@
         <v>330</v>
       </c>
       <c r="AC240" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = tucana_adapter_s1_s0_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -37140,7 +37230,7 @@
     @title = #$@PART[tucana_adapter_s1_s0_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[tucana_adapter_s1_s0_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[tucana_adapter_s1_s0_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[tucana_adapter_s1_s0_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -37156,7 +37246,7 @@
       <c r="AJ240" s="18"/>
       <c r="AK240" s="18"/>
       <c r="AL240" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM240" s="14"/>
@@ -37193,7 +37283,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="241" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>595</v>
       </c>
@@ -37225,7 +37315,7 @@
         <v>36</v>
       </c>
       <c r="L241" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tucana_adapter_s1p5_s0_1]:AFTER[Tantares] // Tucana Size 1.5 to Size 0 Flat Adapter
 {
     @TechRequired = Not Valid Combination
@@ -37261,7 +37351,7 @@
         <v>330</v>
       </c>
       <c r="AC241" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -37290,7 +37380,7 @@
       <c r="AJ241" s="18"/>
       <c r="AK241" s="18"/>
       <c r="AL241" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM241" s="14"/>
@@ -37318,7 +37408,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>595</v>
       </c>
@@ -37350,7 +37440,7 @@
         <v>36</v>
       </c>
       <c r="L242" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tucana_adapter_s1p5_s0p5_1]:AFTER[Tantares] // Tucana Size 1.5 to Size 0.5 Flat Adapter
 {
     @TechRequired = Not Valid Combination
@@ -37391,11 +37481,12 @@
         <v>330</v>
       </c>
       <c r="AC242" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = tucana_adapter_s1p5_s0p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -37409,7 +37500,7 @@
     @title = #$@PART[tucana_adapter_s1p5_s0p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[tucana_adapter_s1p5_s0p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[tucana_adapter_s1p5_s0p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[tucana_adapter_s1p5_s0p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -37425,7 +37516,7 @@
       <c r="AJ242" s="18"/>
       <c r="AK242" s="18"/>
       <c r="AL242" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM242" s="14"/>
@@ -37462,7 +37553,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="243" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>595</v>
       </c>
@@ -37494,7 +37585,7 @@
         <v>36</v>
       </c>
       <c r="L243" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tucana_adapter_s1p5_s1_1]:AFTER[Tantares] // Tucana Size 1.5 to Size 1 Flat Adapter
 {
     @TechRequired = Not Valid Combination
@@ -37530,7 +37621,7 @@
         <v>330</v>
       </c>
       <c r="AC243" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -37559,7 +37650,7 @@
       <c r="AJ243" s="18"/>
       <c r="AK243" s="18"/>
       <c r="AL243" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM243" s="14"/>
@@ -37587,7 +37678,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>595</v>
       </c>
@@ -37619,7 +37710,7 @@
         <v>36</v>
       </c>
       <c r="L244" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tucana_adapter_s2_s0p5_2]:AFTER[Tantares] // Tucana Size 2 to Size 0.5 Flat Adapter
 {
     @TechRequired = Not Valid Combination
@@ -37660,11 +37751,12 @@
         <v>330</v>
       </c>
       <c r="AC244" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = tucana_adapter_s2_s0p5_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -37678,7 +37770,7 @@
     @title = #$@PART[tucana_adapter_s2_s0p5_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[tucana_adapter_s2_s0p5_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[tucana_adapter_s2_s0p5_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[tucana_adapter_s2_s0p5_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -37694,7 +37786,7 @@
       <c r="AJ244" s="18"/>
       <c r="AK244" s="18"/>
       <c r="AL244" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM244" s="14"/>
@@ -37731,7 +37823,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="245" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>595</v>
       </c>
@@ -37763,7 +37855,7 @@
         <v>78</v>
       </c>
       <c r="L245" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tucana_adapter_s2_s1_2]:AFTER[Tantares] // Tucana Size 2 to Size 1 Flat Adapter
 {
     @TechRequired = Not Valid Combination
@@ -37799,7 +37891,7 @@
         <v>330</v>
       </c>
       <c r="AC245" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -37828,7 +37920,7 @@
       <c r="AJ245" s="18"/>
       <c r="AK245" s="18"/>
       <c r="AL245" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM245" s="14"/>
@@ -37856,7 +37948,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>595</v>
       </c>
@@ -37888,7 +37980,7 @@
         <v>36</v>
       </c>
       <c r="L246" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tucana_adapter_s2_s1p5_1]:AFTER[Tantares] // Tucana Size 2 to Size 1.5 Inline Adapter
 {
     @TechRequired = Not Valid Combination
@@ -37929,11 +38021,12 @@
         <v>330</v>
       </c>
       <c r="AC246" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = tucana_adapter_s2_s1p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -37947,7 +38040,7 @@
     @title = #$@PART[tucana_adapter_s2_s1p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[tucana_adapter_s2_s1p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[tucana_adapter_s2_s1p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[tucana_adapter_s2_s1p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -37963,7 +38056,7 @@
       <c r="AJ246" s="18"/>
       <c r="AK246" s="18"/>
       <c r="AL246" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM246" s="14"/>
@@ -38000,7 +38093,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="247" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>595</v>
       </c>
@@ -38032,7 +38125,7 @@
         <v>36</v>
       </c>
       <c r="L247" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tucana_adapter_s2_s1p5_2]:AFTER[Tantares] // Tucana Size 2 to Size 1.5 Flat Adapter
 {
     @TechRequired = Not Valid Combination
@@ -38068,7 +38161,7 @@
         <v>330</v>
       </c>
       <c r="AC247" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -38097,7 +38190,7 @@
       <c r="AJ247" s="18"/>
       <c r="AK247" s="18"/>
       <c r="AL247" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM247" s="14"/>
@@ -38125,7 +38218,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>595</v>
       </c>
@@ -38157,7 +38250,7 @@
         <v>36</v>
       </c>
       <c r="L248" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tucana_crew_s1_1]:AFTER[Tantares] // Tucana 12-A1 "Svartboks" Airlock Section
 {
     @TechRequired = Not Valid Combination
@@ -38198,11 +38291,12 @@
         <v>330</v>
       </c>
       <c r="AC248" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = tucana_crew_s1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -38216,7 +38310,7 @@
     @title = #$@PART[tucana_crew_s1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[tucana_crew_s1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[tucana_crew_s1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[tucana_crew_s1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -38232,7 +38326,7 @@
       <c r="AJ248" s="18"/>
       <c r="AK248" s="18"/>
       <c r="AL248" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM248" s="14"/>
@@ -38269,7 +38363,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="249" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>595</v>
       </c>
@@ -38301,7 +38395,7 @@
         <v>36</v>
       </c>
       <c r="L249" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tucana_crew_s1p5_1]:AFTER[Tantares] // Tucana 18-A1 "Optikerhytte" Command Module
 {
     @TechRequired = Not Valid Combination
@@ -38337,7 +38431,7 @@
         <v>330</v>
       </c>
       <c r="AC249" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -38366,7 +38460,7 @@
       <c r="AJ249" s="18"/>
       <c r="AK249" s="18"/>
       <c r="AL249" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM249" s="14"/>
@@ -38394,7 +38488,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>595</v>
       </c>
@@ -38426,7 +38520,7 @@
         <v>36</v>
       </c>
       <c r="L250" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tucana_crew_s1p5_2]:AFTER[Tantares] // Tucana 18-A2 "VanntÃ¥rn" Command Module
 {
     @TechRequired = Not Valid Combination
@@ -38467,11 +38561,12 @@
         <v>330</v>
       </c>
       <c r="AC250" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = tucana_crew_s1p5_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -38485,7 +38580,7 @@
     @title = #$@PART[tucana_crew_s1p5_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[tucana_crew_s1p5_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[tucana_crew_s1p5_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[tucana_crew_s1p5_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -38501,7 +38596,7 @@
       <c r="AJ250" s="18"/>
       <c r="AK250" s="18"/>
       <c r="AL250" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM250" s="14"/>
@@ -38538,7 +38633,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="251" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>595</v>
       </c>
@@ -38570,7 +38665,7 @@
         <v>36</v>
       </c>
       <c r="L251" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tucana_crew_s2_1]:AFTER[Tantares] // Tucana 25-A1 "Genserboks" Tail Section
 {
     @TechRequired = Not Valid Combination
@@ -38606,7 +38701,7 @@
         <v>330</v>
       </c>
       <c r="AC251" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -38635,7 +38730,7 @@
       <c r="AJ251" s="18"/>
       <c r="AK251" s="18"/>
       <c r="AL251" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM251" s="14"/>
@@ -38663,7 +38758,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>595</v>
       </c>
@@ -38695,7 +38790,7 @@
         <v>36</v>
       </c>
       <c r="L252" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tucana_crew_s2_2]:AFTER[Tantares] // Tucana 25-A2 "RÃ¸dsokk" Tail Section
 {
     @TechRequired = Not Valid Combination
@@ -38736,11 +38831,12 @@
         <v>330</v>
       </c>
       <c r="AC252" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = tucana_crew_s2_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -38754,7 +38850,7 @@
     @title = #$@PART[tucana_crew_s2_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[tucana_crew_s2_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[tucana_crew_s2_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[tucana_crew_s2_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -38770,7 +38866,7 @@
       <c r="AJ252" s="18"/>
       <c r="AK252" s="18"/>
       <c r="AL252" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM252" s="14"/>
@@ -38807,7 +38903,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="253" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>595</v>
       </c>
@@ -38839,7 +38935,7 @@
         <v>60</v>
       </c>
       <c r="L253" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rana_control_srf_1]:AFTER[Tantares] // Rana SRF-A "Datakasse" Control Block
 {
     @TechRequired = Not Valid Combination
@@ -38875,7 +38971,7 @@
         <v>330</v>
       </c>
       <c r="AC253" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -38904,7 +39000,7 @@
       <c r="AJ253" s="18"/>
       <c r="AK253" s="18"/>
       <c r="AL253" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM253" s="14"/>
@@ -38932,7 +39028,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>595</v>
       </c>
@@ -38964,7 +39060,7 @@
         <v>60</v>
       </c>
       <c r="L254" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rana_mount_srf_1]:AFTER[Tantares] // Rana Structural Mount
 {
     @TechRequired = Not Valid Combination
@@ -39005,11 +39101,12 @@
         <v>330</v>
       </c>
       <c r="AC254" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = rana_mount_srf_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -39023,7 +39120,7 @@
     @title = #$@PART[rana_mount_srf_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[rana_mount_srf_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[rana_mount_srf_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[rana_mount_srf_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -39039,7 +39136,7 @@
       <c r="AJ254" s="18"/>
       <c r="AK254" s="18"/>
       <c r="AL254" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM254" s="14"/>
@@ -39076,7 +39173,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="255" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>595</v>
       </c>
@@ -39108,7 +39205,7 @@
         <v>60</v>
       </c>
       <c r="L255" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rana_truss_srf_1]:AFTER[Tantares] // Rana Structural Truss A
 {
     @TechRequired = Not Valid Combination
@@ -39144,7 +39241,7 @@
         <v>330</v>
       </c>
       <c r="AC255" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -39173,7 +39270,7 @@
       <c r="AJ255" s="18"/>
       <c r="AK255" s="18"/>
       <c r="AL255" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM255" s="14"/>
@@ -39201,7 +39298,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>595</v>
       </c>
@@ -39233,7 +39330,7 @@
         <v>60</v>
       </c>
       <c r="L256" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[rana_truss_srf_2]:AFTER[Tantares] // Rana Structural Truss B
 {
     @TechRequired = Not Valid Combination
@@ -39274,11 +39371,12 @@
         <v>330</v>
       </c>
       <c r="AC256" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = rana_truss_srf_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -39292,7 +39390,7 @@
     @title = #$@PART[rana_truss_srf_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[rana_truss_srf_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[rana_truss_srf_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[rana_truss_srf_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -39308,7 +39406,7 @@
       <c r="AJ256" s="18"/>
       <c r="AK256" s="18"/>
       <c r="AL256" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM256" s="14"/>
@@ -39345,7 +39443,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="257" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>595</v>
       </c>
@@ -39377,7 +39475,7 @@
         <v>45</v>
       </c>
       <c r="L257" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tantares_adapter_s0p5_s0_1]:AFTER[Tantares] // Tantares Size 0.5 to Size 0 Adapter
 {
     @TechRequired = Not Valid Combination
@@ -39413,7 +39511,7 @@
         <v>330</v>
       </c>
       <c r="AC257" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -39442,7 +39540,7 @@
       <c r="AJ257" s="18"/>
       <c r="AK257" s="18"/>
       <c r="AL257" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM257" s="14"/>
@@ -39470,7 +39568,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>595</v>
       </c>
@@ -39502,7 +39600,7 @@
         <v>45</v>
       </c>
       <c r="L258" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tantares_adapter_s1_s0_1]:AFTER[Tantares] // Tantares Size 1 to Size 0 Adapter
 {
     @TechRequired = Not Valid Combination
@@ -39543,11 +39641,12 @@
         <v>330</v>
       </c>
       <c r="AC258" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = tantares_adapter_s1_s0_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -39561,7 +39660,7 @@
     @title = #$@PART[tantares_adapter_s1_s0_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[tantares_adapter_s1_s0_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[tantares_adapter_s1_s0_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[tantares_adapter_s1_s0_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -39577,7 +39676,7 @@
       <c r="AJ258" s="18"/>
       <c r="AK258" s="18"/>
       <c r="AL258" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM258" s="14"/>
@@ -39614,7 +39713,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="259" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>595</v>
       </c>
@@ -39646,7 +39745,7 @@
         <v>45</v>
       </c>
       <c r="L259" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tantares_adapter_s1_s0p5_1]:AFTER[Tantares] // Tantares Size 1 to Size 0.5 Adapter
 {
     @TechRequired = Not Valid Combination
@@ -39682,7 +39781,7 @@
         <v>330</v>
       </c>
       <c r="AC259" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -39711,7 +39810,7 @@
       <c r="AJ259" s="18"/>
       <c r="AK259" s="18"/>
       <c r="AL259" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM259" s="14"/>
@@ -39739,7 +39838,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>595</v>
       </c>
@@ -39771,7 +39870,7 @@
         <v>45</v>
       </c>
       <c r="L260" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tantares_basic_engine_s1_1]:AFTER[Tantares] // Tantares S5.35 "Rullekasse" Propulsion Unit
 {
     @TechRequired = Not Valid Combination
@@ -39812,11 +39911,12 @@
         <v>330</v>
       </c>
       <c r="AC260" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = tantares_basic_engine_s1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -39830,7 +39930,7 @@
     @title = #$@PART[tantares_basic_engine_s1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[tantares_basic_engine_s1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[tantares_basic_engine_s1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[tantares_basic_engine_s1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -39846,7 +39946,7 @@
       <c r="AJ260" s="18"/>
       <c r="AK260" s="18"/>
       <c r="AL260" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM260" s="14"/>
@@ -39883,7 +39983,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="261" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>595</v>
       </c>
@@ -39915,7 +40015,7 @@
         <v>45</v>
       </c>
       <c r="L261" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tantares_basic_fuel_tank_s1_1]:AFTER[Tantares] // Tantares Size 1 Basic Service Compartment
 {
     @TechRequired = Not Valid Combination
@@ -39951,7 +40051,7 @@
         <v>330</v>
       </c>
       <c r="AC261" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -39980,7 +40080,7 @@
       <c r="AJ261" s="18"/>
       <c r="AK261" s="18"/>
       <c r="AL261" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM261" s="14"/>
@@ -40008,7 +40108,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>595</v>
       </c>
@@ -40040,7 +40140,7 @@
         <v>45</v>
       </c>
       <c r="L262" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tantares_crew_s1_1]:AFTER[Tantares] // Tantares 12-A "Vingleboks" Crew Capsule
 {
     @TechRequired = Not Valid Combination
@@ -40081,11 +40181,12 @@
         <v>330</v>
       </c>
       <c r="AC262" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = tantares_crew_s1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -40099,7 +40200,7 @@
     @title = #$@PART[tantares_crew_s1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[tantares_crew_s1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[tantares_crew_s1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[tantares_crew_s1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -40115,7 +40216,7 @@
       <c r="AJ262" s="18"/>
       <c r="AK262" s="18"/>
       <c r="AL262" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM262" s="14"/>
@@ -40152,7 +40253,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="263" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>595</v>
       </c>
@@ -40184,7 +40285,7 @@
         <v>45</v>
       </c>
       <c r="L263" s="12" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>@PART[tantares_decoupler_s1_1]:AFTER[Tantares] // Tantares Size 1 Separator
 {
     @TechRequired = Not Valid Combination
@@ -40220,7 +40321,7 @@
         <v>330</v>
       </c>
       <c r="AC263" s="12" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -40249,7 +40350,7 @@
       <c r="AJ263" s="18"/>
       <c r="AK263" s="18"/>
       <c r="AL263" s="19" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM263" s="14"/>
@@ -40277,7 +40378,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>595</v>
       </c>
@@ -40309,7 +40410,7 @@
         <v>45</v>
       </c>
       <c r="L264" s="12" t="str">
-        <f t="shared" ref="L264:L289" si="19">_xlfn.CONCAT("@PART[",C264,"]:AFTER[",A264,"] // ",IF(Q264="",D264,_xlfn.CONCAT(Q264," (",D264,")")),CHAR(10),"{",CHAR(10),"    @TechRequired = ",M264,IF($Q264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q264),""),IF($R264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R264),""),IF($S264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S264),""),IF($T264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T264),""),IF($U264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),U264),""),IF($AN264&lt;&gt;"",IF(P264="RTG","",_xlfn.CONCAT(CHAR(10),$AN264)),""),IF(AL264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AL264),""),CHAR(10),"}",IF(AA264="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C264,"]:NEEDS[KiwiDeprecate]:AFTER[",A264,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""),IF(P264="RTG",AN264,""))</f>
+        <f t="shared" ref="L264:L289" si="18">_xlfn.CONCAT("@PART[",C264,"]:AFTER[",A264,"] // ",IF(Q264="",D264,_xlfn.CONCAT(Q264," (",D264,")")),CHAR(10),"{",CHAR(10),"    @TechRequired = ",M264,IF($Q264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$Q$1," = ",$Q264),""),IF($R264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$R$1," = ",$R264),""),IF($S264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$S$1," = ",$S264),""),IF($T264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"    @",$T$1," = ",$T264),""),IF($U264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),U264),""),IF($AN264&lt;&gt;"",IF(P264="RTG","",_xlfn.CONCAT(CHAR(10),$AN264)),""),IF(AL264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),AL264),""),CHAR(10),"}",IF(AA264="Yes",_xlfn.CONCAT(CHAR(10),"@PART[",C264,"]:NEEDS[KiwiDeprecate]:AFTER[",A264,"]",CHAR(10),"{",CHAR(10),"    kiwiDeprecate = true",CHAR(10),"}"),""),IF(P264="RTG",AN264,""))</f>
         <v>@PART[tantares_engine_s1_1]:AFTER[Tantares] // Tantares S5.80 "Vognkasse" Propulsion Unit
 {
     @TechRequired = Not Valid Combination
@@ -40350,11 +40451,12 @@
         <v>330</v>
       </c>
       <c r="AC264" s="12" t="str">
-        <f t="shared" ref="AC264:AC289" si="20">IF(P264="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A264,"]",CHAR(10),"{",CHAR(10),"    name = ",X264,CHAR(10),"    partIcon = ",C264,CHAR(10),"    techRequired = ",AS264,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X264,"]:NEEDS[",A264,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C264,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AP264,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C264,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C264,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C264,"]:NEEDS[",A264,"]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",X264,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P264="System",P264="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A264,"]",CHAR(10),"{",CHAR(10),"    name = ",X264,"Upgrade",CHAR(10),"    partIcon = ",C264,CHAR(10),"    techRequired = ",AS264,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = INSERT HERE SYSTEM",CHAR(10),"    basicInfo = Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X264,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",X264,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
+        <f t="shared" ref="AC264:AC289" si="19">IF(P264="Engine",_xlfn.CONCAT("PARTUPGRADE:NEEDS[",A264,"]",CHAR(10),"{",CHAR(10),"    name = ",X264,CHAR(10),"    partIcon = ",C264,CHAR(10),"    entryCost = 1",CHAR(10),"    techRequired = ",AS264,CHAR(10),"    title = ",CHAR(10),"    basicInfo = Increased Thrust, Increased Specific Impulse",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = ",CHAR(10),"}",CHAR(10),"@PARTUPGRADE[",X264,"]:NEEDS[",A264,"]:FOR[zKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @entryCost = #$@PART[",C264,"]/entryCost$",CHAR(10),"    @entryCost *= #$@KIWI_ENGINE_MULTIPLIERS/",AP264,"/UPGRADE_ENTRYCOST_MULTIPLIER$",CHAR(10),"    @title = #$@PART[",C264,"]/title$ Upgrade",CHAR(10),"    @description = #Our imagineers dreamt about making the $@PART[",C264,"]/engineName$ thrustier and efficientier and have 'made it so'.",CHAR(10),"}",CHAR(10),"@PART[",C264,"]:NEEDS[",A264,"]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[",X264,"]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),IF(OR(P264="System",P264="System and Space Capability")=TRUE,_xlfn.CONCAT("// Choose the one with the part that you want to represent the system",CHAR(10),"PARTUPGRADE:NEEDS[",A264,"]",CHAR(10),"{",CHAR(10),"    name = ",X264,"Upgrade",CHAR(10),"    partIcon = ",C264,CHAR(10),"    techRequired = ",AS264,CHAR(10),"    entryCost = INSERT HERE",CHAR(10),"    title = INSERT HERE SYSTEM",CHAR(10),"    basicInfo = Decrease in Dry Mass",CHAR(10),"    manufacturer = Kiwi Imagineers",CHAR(10),"    description = The engineers have introduced composite materials that have reduced the dry mass of the INSERT HERE System",CHAR(10),"}",CHAR(10),"@PART[*]:HAS[#spacePlaneSystemUpgradeType[",X264,"]]:FOR[zzzKiwiTechTree]",CHAR(10),"{",CHAR(10),"    @description = #$description$ \n\n&lt;color=#ff0000&gt;The INSERT HERE System has upgrades in $@PARTUPGRADE[",X264,"Upgrade]/techRequired$!&lt;/color&gt; ",CHAR(10),"}"),""))</f>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = tantares_engine_s1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -40368,7 +40470,7 @@
     @title = #$@PART[tantares_engine_s1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[tantares_engine_s1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[tantares_engine_s1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[tantares_engine_s1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -40384,7 +40486,7 @@
       <c r="AJ264" s="18"/>
       <c r="AK264" s="18"/>
       <c r="AL264" s="19" t="str">
-        <f t="shared" ref="AL264:AL289" si="21">IF(AE264="Yes",_xlfn.CONCAT("    @MODULE[ModuleEngines*]",CHAR(10),"    {",IF(AF264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        @maxThrust = ",AF264),""),IF(AG264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        !atmosphereCurve {}",CHAR(10),"        atmosphereCurve",CHAR(10),"        {",IF(AG264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AG264),""),IF(AH264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AH264),""),IF(AI264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AI264),""),IF(AJ264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AJ264),""),IF(AK264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AK264),""),CHAR(10),"        }"),""),CHAR(10),"    }"),"")</f>
+        <f t="shared" ref="AL264:AL289" si="20">IF(AE264="Yes",_xlfn.CONCAT("    @MODULE[ModuleEngines*]",CHAR(10),"    {",IF(AF264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        @maxThrust = ",AF264),""),IF(AG264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"        !atmosphereCurve {}",CHAR(10),"        atmosphereCurve",CHAR(10),"        {",IF(AG264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AG264),""),IF(AH264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AH264),""),IF(AI264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AI264),""),IF(AJ264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AJ264),""),IF(AK264&lt;&gt;"",_xlfn.CONCAT(CHAR(10),"            key = ",AK264),""),CHAR(10),"        }"),""),CHAR(10),"    }"),"")</f>
         <v/>
       </c>
       <c r="AM264" s="14"/>
@@ -40421,7 +40523,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="265" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>595</v>
       </c>
@@ -40453,7 +40555,7 @@
         <v>45</v>
       </c>
       <c r="L265" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[tantares_fuel_tank_s1_1]:AFTER[Tantares] // Tantares Size 1 Service Compartment
 {
     @TechRequired = Not Valid Combination
@@ -40489,7 +40591,7 @@
         <v>330</v>
       </c>
       <c r="AC265" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -40518,7 +40620,7 @@
       <c r="AJ265" s="18"/>
       <c r="AK265" s="18"/>
       <c r="AL265" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM265" s="14"/>
@@ -40546,7 +40648,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>595</v>
       </c>
@@ -40578,7 +40680,7 @@
         <v>45</v>
       </c>
       <c r="L266" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[tantares_heatshield_s1_1]:AFTER[Tantares] // Tantares Size 1 Heatshield
 {
     @TechRequired = Not Valid Combination
@@ -40619,11 +40721,12 @@
         <v>330</v>
       </c>
       <c r="AC266" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = tantares_heatshield_s1_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -40637,7 +40740,7 @@
     @title = #$@PART[tantares_heatshield_s1_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[tantares_heatshield_s1_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[tantares_heatshield_s1_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[tantares_heatshield_s1_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -40653,7 +40756,7 @@
       <c r="AJ266" s="18"/>
       <c r="AK266" s="18"/>
       <c r="AL266" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM266" s="14"/>
@@ -40690,7 +40793,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="267" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>595</v>
       </c>
@@ -40722,7 +40825,7 @@
         <v>45</v>
       </c>
       <c r="L267" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[tantares_orbital_module_s1_1]:AFTER[Tantares] // Tantares 93-A "EldstesfÃ¦re" Orbital Module
 {
     @TechRequired = Not Valid Combination
@@ -40758,7 +40861,7 @@
         <v>330</v>
       </c>
       <c r="AC267" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -40787,7 +40890,7 @@
       <c r="AJ267" s="18"/>
       <c r="AK267" s="18"/>
       <c r="AL267" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM267" s="14"/>
@@ -40815,7 +40918,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>595</v>
       </c>
@@ -40847,7 +40950,7 @@
         <v>45</v>
       </c>
       <c r="L268" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[tantares_orbital_module_s1_2]:AFTER[Tantares] // Tantares 93-B "EldresfÃ¦re" Orbital Module
 {
     @TechRequired = Not Valid Combination
@@ -40888,11 +40991,12 @@
         <v>330</v>
       </c>
       <c r="AC268" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = tantares_orbital_module_s1_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -40906,7 +41010,7 @@
     @title = #$@PART[tantares_orbital_module_s1_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[tantares_orbital_module_s1_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[tantares_orbital_module_s1_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[tantares_orbital_module_s1_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -40922,7 +41026,7 @@
       <c r="AJ268" s="18"/>
       <c r="AK268" s="18"/>
       <c r="AL268" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM268" s="14"/>
@@ -40959,7 +41063,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="269" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>595</v>
       </c>
@@ -40991,7 +41095,7 @@
         <v>45</v>
       </c>
       <c r="L269" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[tantares_orbital_module_s1_3]:AFTER[Tantares] // Tantares 93-C "NysfÃ¦re" Orbital Module
 {
     @TechRequired = Not Valid Combination
@@ -41027,7 +41131,7 @@
         <v>330</v>
       </c>
       <c r="AC269" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -41056,7 +41160,7 @@
       <c r="AJ269" s="18"/>
       <c r="AK269" s="18"/>
       <c r="AL269" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM269" s="14"/>
@@ -41084,7 +41188,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>595</v>
       </c>
@@ -41116,7 +41220,7 @@
         <v>45</v>
       </c>
       <c r="L270" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[tantares_orbital_module_s1_4]:AFTER[Tantares] // Tantares 12-D "Kopiboks" Orbital Module
 {
     @TechRequired = Not Valid Combination
@@ -41157,11 +41261,12 @@
         <v>330</v>
       </c>
       <c r="AC270" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = tantares_orbital_module_s1_4
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -41175,7 +41280,7 @@
     @title = #$@PART[tantares_orbital_module_s1_4]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[tantares_orbital_module_s1_4]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[tantares_orbital_module_s1_4]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[tantares_orbital_module_s1_4]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -41191,7 +41296,7 @@
       <c r="AJ270" s="18"/>
       <c r="AK270" s="18"/>
       <c r="AL270" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM270" s="14"/>
@@ -41228,7 +41333,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="271" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>595</v>
       </c>
@@ -41260,7 +41365,7 @@
         <v>45</v>
       </c>
       <c r="L271" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[tantares_parachute_s0_1]:AFTER[Tantares] // Tantares Size 0 Inline Parachute
 {
     @TechRequired = Not Valid Combination
@@ -41296,7 +41401,7 @@
         <v>330</v>
       </c>
       <c r="AC271" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -41325,7 +41430,7 @@
       <c r="AJ271" s="18"/>
       <c r="AK271" s="18"/>
       <c r="AL271" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM271" s="14"/>
@@ -41353,7 +41458,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>595</v>
       </c>
@@ -41385,7 +41490,7 @@
         <v>26</v>
       </c>
       <c r="L272" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[alnair_avionics_s0_1]:AFTER[Tantares] // Alnair 62-A "Hjernepille" Control Block
 {
     @TechRequired = Not Valid Combination
@@ -41426,11 +41531,12 @@
         <v>330</v>
       </c>
       <c r="AC272" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = alnair_avionics_s0_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -41444,7 +41550,7 @@
     @title = #$@PART[alnair_avionics_s0_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[alnair_avionics_s0_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[alnair_avionics_s0_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[alnair_avionics_s0_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -41460,7 +41566,7 @@
       <c r="AJ272" s="18"/>
       <c r="AK272" s="18"/>
       <c r="AL272" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM272" s="14"/>
@@ -41497,7 +41603,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="273" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>595</v>
       </c>
@@ -41529,7 +41635,7 @@
         <v>26</v>
       </c>
       <c r="L273" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[alnair_crew_s1p5_1]:AFTER[Tantares] // Alnair 18-A "Avansert" Crew Capsule
 {
     @TechRequired = Not Valid Combination
@@ -41565,7 +41671,7 @@
         <v>330</v>
       </c>
       <c r="AC273" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -41594,7 +41700,7 @@
       <c r="AJ273" s="18"/>
       <c r="AK273" s="18"/>
       <c r="AL273" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM273" s="14"/>
@@ -41622,7 +41728,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>595</v>
       </c>
@@ -41654,7 +41760,7 @@
         <v>26</v>
       </c>
       <c r="L274" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[alnair_crew_s2_1]:AFTER[Tantares] // Alnair 25-A "Utvidelse" Crew Capsule
 {
     @TechRequired = Not Valid Combination
@@ -41695,11 +41801,12 @@
         <v>330</v>
       </c>
       <c r="AC274" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = alnair_crew_s2_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -41713,7 +41820,7 @@
     @title = #$@PART[alnair_crew_s2_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[alnair_crew_s2_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[alnair_crew_s2_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[alnair_crew_s2_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -41729,7 +41836,7 @@
       <c r="AJ274" s="18"/>
       <c r="AK274" s="18"/>
       <c r="AL274" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM274" s="14"/>
@@ -41766,7 +41873,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="275" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>595</v>
       </c>
@@ -41798,7 +41905,7 @@
         <v>26</v>
       </c>
       <c r="L275" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[alnair_engine_s0p5_1]:AFTER[Tantares] // #LOC_Tantares_alnair_engine_s0p5_1
 {
     @TechRequired = Not Valid Combination
@@ -41834,7 +41941,7 @@
         <v>330</v>
       </c>
       <c r="AC275" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -41863,7 +41970,7 @@
       <c r="AJ275" s="18"/>
       <c r="AK275" s="18"/>
       <c r="AL275" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM275" s="14"/>
@@ -41891,7 +41998,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>595</v>
       </c>
@@ -41923,7 +42030,7 @@
         <v>26</v>
       </c>
       <c r="L276" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[alnair_heatshield_s1p5_1]:AFTER[Tantares] // Alnair Size 1.5 Heatshield
 {
     @TechRequired = Not Valid Combination
@@ -41964,11 +42071,12 @@
         <v>330</v>
       </c>
       <c r="AC276" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = alnair_heatshield_s1p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -41982,7 +42090,7 @@
     @title = #$@PART[alnair_heatshield_s1p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[alnair_heatshield_s1p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[alnair_heatshield_s1p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[alnair_heatshield_s1p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -41998,7 +42106,7 @@
       <c r="AJ276" s="18"/>
       <c r="AK276" s="18"/>
       <c r="AL276" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM276" s="14"/>
@@ -42035,7 +42143,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="277" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>595</v>
       </c>
@@ -42067,7 +42175,7 @@
         <v>26</v>
       </c>
       <c r="L277" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[alnair_heatshield_s2_1]:AFTER[Tantares] // Alnair Size 2 Heatshield
 {
     @TechRequired = Not Valid Combination
@@ -42103,7 +42211,7 @@
         <v>330</v>
       </c>
       <c r="AC277" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -42132,7 +42240,7 @@
       <c r="AJ277" s="18"/>
       <c r="AK277" s="18"/>
       <c r="AL277" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM277" s="14"/>
@@ -42160,7 +42268,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>595</v>
       </c>
@@ -42192,7 +42300,7 @@
         <v>26</v>
       </c>
       <c r="L278" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[alnair_parachute_s0p5_1]:AFTER[Tantares] // Alnair Size 0.5 Parachute
 {
     @TechRequired = Not Valid Combination
@@ -42233,11 +42341,12 @@
         <v>330</v>
       </c>
       <c r="AC278" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = alnair_parachute_s0p5_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -42251,7 +42360,7 @@
     @title = #$@PART[alnair_parachute_s0p5_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[alnair_parachute_s0p5_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[alnair_parachute_s0p5_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[alnair_parachute_s0p5_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -42267,7 +42376,7 @@
       <c r="AJ278" s="18"/>
       <c r="AK278" s="18"/>
       <c r="AL278" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM278" s="14"/>
@@ -42304,7 +42413,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="279" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>595</v>
       </c>
@@ -42336,7 +42445,7 @@
         <v>78</v>
       </c>
       <c r="L279" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[Andromeda_Antenna_1]:AFTER[Tantares] // Andromeda 55Ã… Half-Moon Antenna
 {
     @TechRequired = Not Valid Combination
@@ -42372,7 +42481,7 @@
         <v>330</v>
       </c>
       <c r="AC279" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -42401,7 +42510,7 @@
       <c r="AJ279" s="18"/>
       <c r="AK279" s="18"/>
       <c r="AL279" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM279" s="14"/>
@@ -42429,7 +42538,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>595</v>
       </c>
@@ -42461,7 +42570,7 @@
         <v>78</v>
       </c>
       <c r="L280" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[Andromeda_Antenna_2]:AFTER[Tantares] // Andromeda 66Ã… Full-Moon Antenna
 {
     @TechRequired = Not Valid Combination
@@ -42502,11 +42611,12 @@
         <v>330</v>
       </c>
       <c r="AC280" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Andromeda_Antenna_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -42520,7 +42630,7 @@
     @title = #$@PART[Andromeda_Antenna_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Andromeda_Antenna_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Andromeda_Antenna_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Andromeda_Antenna_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -42536,7 +42646,7 @@
       <c r="AJ280" s="18"/>
       <c r="AK280" s="18"/>
       <c r="AL280" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM280" s="14"/>
@@ -42573,7 +42683,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="281" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>595</v>
       </c>
@@ -42605,7 +42715,7 @@
         <v>78</v>
       </c>
       <c r="L281" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[Andromeda_Avionics_1]:AFTER[Tantares] // Andromeda VK3 Avionics Package
 {
     @TechRequired = Not Valid Combination
@@ -42641,7 +42751,7 @@
         <v>330</v>
       </c>
       <c r="AC281" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -42670,7 +42780,7 @@
       <c r="AJ281" s="18"/>
       <c r="AK281" s="18"/>
       <c r="AL281" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM281" s="14"/>
@@ -42698,7 +42808,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>595</v>
       </c>
@@ -42730,7 +42840,7 @@
         <v>78</v>
       </c>
       <c r="L282" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[Andromeda_Crew_1]:AFTER[Tantares] // Andromeda 1CS 'Rullendemann' Crew Module
 {
     @TechRequired = Not Valid Combination
@@ -42771,11 +42881,12 @@
         <v>330</v>
       </c>
       <c r="AC282" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Andromeda_Crew_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -42789,7 +42900,7 @@
     @title = #$@PART[Andromeda_Crew_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Andromeda_Crew_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Andromeda_Crew_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Andromeda_Crew_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -42805,7 +42916,7 @@
       <c r="AJ282" s="18"/>
       <c r="AK282" s="18"/>
       <c r="AL282" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM282" s="14"/>
@@ -42842,7 +42953,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="283" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>595</v>
       </c>
@@ -42874,7 +42985,7 @@
         <v>78</v>
       </c>
       <c r="L283" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[Andromeda_Decoupler_1]:AFTER[Tantares] // Andromeda D95 Decoupler
 {
     @TechRequired = Not Valid Combination
@@ -42910,7 +43021,7 @@
         <v>330</v>
       </c>
       <c r="AC283" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -42939,7 +43050,7 @@
       <c r="AJ283" s="18"/>
       <c r="AK283" s="18"/>
       <c r="AL283" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM283" s="14"/>
@@ -42967,7 +43078,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>595</v>
       </c>
@@ -42999,7 +43110,7 @@
         <v>78</v>
       </c>
       <c r="L284" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[Andromeda_Engine_1]:AFTER[Tantares] // Andromeda S5.4 "Fjellgeit" Orbital Engine
 {
     @TechRequired = Not Valid Combination
@@ -43040,11 +43151,12 @@
         <v>330</v>
       </c>
       <c r="AC284" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Andromeda_Engine_1
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -43058,7 +43170,7 @@
     @title = #$@PART[Andromeda_Engine_1]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Andromeda_Engine_1]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Andromeda_Engine_1]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Andromeda_Engine_1]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -43074,7 +43186,7 @@
       <c r="AJ284" s="18"/>
       <c r="AK284" s="18"/>
       <c r="AL284" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM284" s="14"/>
@@ -43111,7 +43223,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="285" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>595</v>
       </c>
@@ -43143,7 +43255,7 @@
         <v>78</v>
       </c>
       <c r="L285" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[Andromeda_FuelSphere_1]:AFTER[Tantares] // Andromeda Small Fuel Tank
 {
     @TechRequired = Not Valid Combination
@@ -43179,7 +43291,7 @@
         <v>330</v>
       </c>
       <c r="AC285" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -43208,7 +43320,7 @@
       <c r="AJ285" s="18"/>
       <c r="AK285" s="18"/>
       <c r="AL285" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM285" s="14"/>
@@ -43236,7 +43348,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>595</v>
       </c>
@@ -43268,7 +43380,7 @@
         <v>78</v>
       </c>
       <c r="L286" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[Andromeda_FuelSphere_2]:AFTER[Tantares] // Andromeda Large Fuel Tank
 {
     @TechRequired = Not Valid Combination
@@ -43309,11 +43421,12 @@
         <v>330</v>
       </c>
       <c r="AC286" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Andromeda_FuelSphere_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -43327,7 +43440,7 @@
     @title = #$@PART[Andromeda_FuelSphere_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Andromeda_FuelSphere_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Andromeda_FuelSphere_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Andromeda_FuelSphere_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -43343,7 +43456,7 @@
       <c r="AJ286" s="18"/>
       <c r="AK286" s="18"/>
       <c r="AL286" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM286" s="14"/>
@@ -43380,7 +43493,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="287" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>595</v>
       </c>
@@ -43412,7 +43525,7 @@
         <v>78</v>
       </c>
       <c r="L287" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[Andromeda_MonoSphere_1]:AFTER[Tantares] // Andromeda Small MonoPropellant Tank
 {
     @TechRequired = Not Valid Combination
@@ -43448,7 +43561,7 @@
         <v>330</v>
       </c>
       <c r="AC287" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -43477,7 +43590,7 @@
       <c r="AJ287" s="18"/>
       <c r="AK287" s="18"/>
       <c r="AL287" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM287" s="14"/>
@@ -43505,7 +43618,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="1:45" ht="252.5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>595</v>
       </c>
@@ -43537,7 +43650,7 @@
         <v>78</v>
       </c>
       <c r="L288" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[Andromeda_MonoSphere_2]:AFTER[Tantares] // Andromeda Large MonoPropellant Tank
 {
     @TechRequired = Not Valid Combination
@@ -43578,11 +43691,12 @@
         <v>330</v>
       </c>
       <c r="AC288" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>PARTUPGRADE:NEEDS[Tantares]
 {
     name = 
     partIcon = Andromeda_MonoSphere_2
+    entryCost = 1
     techRequired = Not Valid Combination
     title = 
     basicInfo = Increased Thrust, Increased Specific Impulse
@@ -43596,7 +43710,7 @@
     @title = #$@PART[Andromeda_MonoSphere_2]/title$ Upgrade
     @description = #Our imagineers dreamt about making the $@PART[Andromeda_MonoSphere_2]/engineName$ thrustier and efficientier and have 'made it so'.
 }
-@PART[Andromeda_MonoSphere_2]:NEEDS[Tantares]:AFTER[zzKiwiTechTree]
+@PART[Andromeda_MonoSphere_2]:NEEDS[Tantares]:HAS[~engineUpgrade[off]]:AFTER[zzKiwiTechTree]
 {
     @description = #$description$ \n\n&lt;color=#ff0000&gt;This engine has an upgrade in $@PARTUPGRADE[]/techRequired$!&lt;/color&gt; 
 }</v>
@@ -43612,7 +43726,7 @@
       <c r="AJ288" s="18"/>
       <c r="AK288" s="18"/>
       <c r="AL288" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM288" s="14"/>
@@ -43649,7 +43763,7 @@
         <v>Not Valid Combination</v>
       </c>
     </row>
-    <row r="289" spans="1:45" ht="192.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:45" ht="264.5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>595</v>
       </c>
@@ -43681,7 +43795,7 @@
         <v>78</v>
       </c>
       <c r="L289" s="12" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>@PART[Andromeda_Parachute_1]:AFTER[Tantares] // Andromeda RP1 Return Parachute
 {
     @TechRequired = Not Valid Combination
@@ -43717,7 +43831,7 @@
         <v>330</v>
       </c>
       <c r="AC289" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>// Choose the one with the part that you want to represent the system
 PARTUPGRADE:NEEDS[Tantares]
 {
@@ -43746,7 +43860,7 @@
       <c r="AJ289" s="18"/>
       <c r="AK289" s="18"/>
       <c r="AL289" s="19" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM289" s="14"/>
@@ -53285,10 +53399,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E288295C-8DAF-400E-9F68-0211F8ED3F75}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -53315,6 +53429,14 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>564</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="21">
+        <v>44158</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1477</v>
       </c>
     </row>
   </sheetData>
